--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9884066596366998</v>
+        <v>0.9705631436618437</v>
       </c>
       <c r="D2">
-        <v>1.010211460024062</v>
+        <v>0.9941961790705794</v>
       </c>
       <c r="E2">
-        <v>0.9939885981890291</v>
+        <v>0.9806184777333062</v>
       </c>
       <c r="F2">
-        <v>1.006902614108124</v>
+        <v>0.945785108106359</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042070276253432</v>
+        <v>1.032042241488382</v>
       </c>
       <c r="J2">
-        <v>1.010939742559233</v>
+        <v>0.9936614251747983</v>
       </c>
       <c r="K2">
-        <v>1.021530342734863</v>
+        <v>1.005736966937617</v>
       </c>
       <c r="L2">
-        <v>1.005532321597156</v>
+        <v>0.992354598841842</v>
       </c>
       <c r="M2">
-        <v>1.018266614931467</v>
+        <v>0.9580552383352615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979655605677797</v>
+        <v>0.9785303306517363</v>
       </c>
       <c r="D3">
-        <v>1.017732006986605</v>
+        <v>1.000105127097474</v>
       </c>
       <c r="E3">
-        <v>1.002273549949508</v>
+        <v>0.987225480132129</v>
       </c>
       <c r="F3">
-        <v>1.015717575432891</v>
+        <v>0.9567753737175871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045625955210524</v>
+        <v>1.034069283118519</v>
       </c>
       <c r="J3">
-        <v>1.018511840520423</v>
+        <v>0.9996238983106245</v>
       </c>
       <c r="K3">
-        <v>1.028142921374168</v>
+        <v>1.010736662979442</v>
       </c>
       <c r="L3">
-        <v>1.012877422700479</v>
+        <v>0.998024465569204</v>
       </c>
       <c r="M3">
-        <v>1.026153220558464</v>
+        <v>0.9679929204072671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003910791119385</v>
+        <v>0.9835038591294724</v>
       </c>
       <c r="D4">
-        <v>1.022412583217116</v>
+        <v>1.003795975361824</v>
       </c>
       <c r="E4">
-        <v>1.00742714939999</v>
+        <v>0.99135682754993</v>
       </c>
       <c r="F4">
-        <v>1.021209730888923</v>
+        <v>0.9636191248697692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047821361954913</v>
+        <v>1.035320294460628</v>
       </c>
       <c r="J4">
-        <v>1.023214984756974</v>
+        <v>1.003339162551438</v>
       </c>
       <c r="K4">
-        <v>1.032247828968245</v>
+        <v>1.013848801191196</v>
       </c>
       <c r="L4">
-        <v>1.017436754189017</v>
+        <v>1.001560699675185</v>
       </c>
       <c r="M4">
-        <v>1.031058738933248</v>
+        <v>0.9741774153158135</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006356868640646</v>
+        <v>0.9855541015354241</v>
       </c>
       <c r="D5">
-        <v>1.024338915253387</v>
+        <v>1.005317827276138</v>
       </c>
       <c r="E5">
-        <v>1.009547581184215</v>
+        <v>0.9930614443737668</v>
       </c>
       <c r="F5">
-        <v>1.02347154906865</v>
+        <v>0.9664369925066263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04872068578466</v>
+        <v>1.03583247824568</v>
       </c>
       <c r="J5">
-        <v>1.025148408515054</v>
+        <v>1.004869038124321</v>
       </c>
       <c r="K5">
-        <v>1.033934738778165</v>
+        <v>1.015129491067364</v>
       </c>
       <c r="L5">
-        <v>1.019310380062109</v>
+        <v>1.003017616495587</v>
       </c>
       <c r="M5">
-        <v>1.033077000174651</v>
+        <v>0.9767228512038135</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006764562696145</v>
+        <v>0.9858960420626479</v>
       </c>
       <c r="D6">
-        <v>1.024660011354911</v>
+        <v>1.005571660091851</v>
       </c>
       <c r="E6">
-        <v>1.009900999487327</v>
+        <v>0.9933458292362973</v>
       </c>
       <c r="F6">
-        <v>1.023848654474028</v>
+        <v>0.9669067810532489</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048870343931331</v>
+        <v>1.035917691269708</v>
       </c>
       <c r="J6">
-        <v>1.025470559853753</v>
+        <v>1.0051240922423</v>
       </c>
       <c r="K6">
-        <v>1.034215779939375</v>
+        <v>1.015342951573972</v>
       </c>
       <c r="L6">
-        <v>1.019622527857753</v>
+        <v>1.003260551356193</v>
       </c>
       <c r="M6">
-        <v>1.033413382850615</v>
+        <v>0.9771471604209417</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003943679999419</v>
+        <v>0.9835314106223465</v>
       </c>
       <c r="D7">
-        <v>1.022438481749662</v>
+        <v>1.003816424984349</v>
       </c>
       <c r="E7">
-        <v>1.007455659695042</v>
+        <v>0.9913797284789347</v>
       </c>
       <c r="F7">
-        <v>1.021240133963063</v>
+        <v>0.9636570041689004</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047833469616799</v>
+        <v>1.035327191320212</v>
       </c>
       <c r="J7">
-        <v>1.023240987234029</v>
+        <v>1.003359727939123</v>
       </c>
       <c r="K7">
-        <v>1.032270518464276</v>
+        <v>1.01386602025935</v>
       </c>
       <c r="L7">
-        <v>1.01746195513727</v>
+        <v>1.001580281325311</v>
       </c>
       <c r="M7">
-        <v>1.031085875919033</v>
+        <v>0.9742116364479538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.991689496801082</v>
+        <v>0.9732951698080622</v>
       </c>
       <c r="D8">
-        <v>1.012793487807466</v>
+        <v>0.9962218550598766</v>
       </c>
       <c r="E8">
-        <v>0.9968336955707555</v>
+        <v>0.9828825454933271</v>
       </c>
       <c r="F8">
-        <v>1.009927810812218</v>
+        <v>0.9495578457784603</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043294770454377</v>
+        <v>1.032740332841221</v>
       </c>
       <c r="J8">
-        <v>1.01354154665072</v>
+        <v>0.9957074383072976</v>
       </c>
       <c r="K8">
-        <v>1.023802907498593</v>
+        <v>1.007453248110293</v>
       </c>
       <c r="L8">
-        <v>1.008056727973639</v>
+        <v>0.9942994868588068</v>
       </c>
       <c r="M8">
-        <v>1.020974962112457</v>
+        <v>0.9614674022857863</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.968040635042727</v>
+        <v>0.9537165194397664</v>
       </c>
       <c r="D9">
-        <v>0.9942151660449806</v>
+        <v>0.9817219032035684</v>
       </c>
       <c r="E9">
-        <v>0.9763469164596993</v>
+        <v>0.9666930642727886</v>
       </c>
       <c r="F9">
-        <v>0.9881852005012784</v>
+        <v>0.9224101277319513</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034406989433944</v>
+        <v>1.027677941833524</v>
       </c>
       <c r="J9">
-        <v>0.9947747299726966</v>
+        <v>0.9810166309219848</v>
       </c>
       <c r="K9">
-        <v>1.007402800618339</v>
+        <v>0.9951186583913759</v>
       </c>
       <c r="L9">
-        <v>0.9898357712553563</v>
+        <v>0.9803506722654706</v>
       </c>
       <c r="M9">
-        <v>1.001472917911205</v>
+        <v>0.9369013807630566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505289592079731</v>
+        <v>0.9393821385183726</v>
       </c>
       <c r="D10">
-        <v>0.9804980906635359</v>
+        <v>0.9711368386465808</v>
       </c>
       <c r="E10">
-        <v>0.9611957686605394</v>
+        <v>0.9548930182788965</v>
       </c>
       <c r="F10">
-        <v>0.9721610174356669</v>
+        <v>0.9023377759573022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027744614518151</v>
+        <v>1.023898613781436</v>
       </c>
       <c r="J10">
-        <v>0.9808528094669555</v>
+        <v>0.9702258322408439</v>
       </c>
       <c r="K10">
-        <v>0.9952286175765888</v>
+        <v>0.9860475430382094</v>
       </c>
       <c r="L10">
-        <v>0.9763028659052586</v>
+        <v>0.9701274232094259</v>
       </c>
       <c r="M10">
-        <v>0.9870517876509144</v>
+        <v>0.9187266874034867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9424276833827481</v>
+        <v>0.9328019705830896</v>
       </c>
       <c r="D11">
-        <v>0.9741661878619415</v>
+        <v>0.9662886437621289</v>
       </c>
       <c r="E11">
-        <v>0.9541941301639171</v>
+        <v>0.9494914632060074</v>
       </c>
       <c r="F11">
-        <v>0.9647702038910647</v>
+        <v>0.8930553279735165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024645214810443</v>
+        <v>1.022147794867616</v>
       </c>
       <c r="J11">
-        <v>0.9744084342309919</v>
+        <v>0.9652644874061184</v>
       </c>
       <c r="K11">
-        <v>0.9895923094034431</v>
+        <v>0.98187559573446</v>
       </c>
       <c r="L11">
-        <v>0.9700348576700447</v>
+        <v>0.9654331822928457</v>
       </c>
       <c r="M11">
-        <v>0.9803885555855426</v>
+        <v>0.9103213895654847</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9393293811584713</v>
+        <v>0.9302944249821206</v>
       </c>
       <c r="D12">
-        <v>0.9717471223674431</v>
+        <v>0.9644430887302754</v>
       </c>
       <c r="E12">
-        <v>0.9515178484089288</v>
+        <v>0.9474356083070512</v>
       </c>
       <c r="F12">
-        <v>0.9619474105688742</v>
+        <v>0.8895053887665215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023457485183456</v>
+        <v>1.021478343928717</v>
       </c>
       <c r="J12">
-        <v>0.9719434731768963</v>
+        <v>0.9633726932797457</v>
       </c>
       <c r="K12">
-        <v>0.987436386244412</v>
+        <v>0.9802847500299834</v>
       </c>
       <c r="L12">
-        <v>0.9676368123342185</v>
+        <v>0.9636442459610595</v>
       </c>
       <c r="M12">
-        <v>0.9778418463197363</v>
+        <v>0.9071070861054499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399982169775544</v>
+        <v>0.930835302935856</v>
       </c>
       <c r="D13">
-        <v>0.9722692072366471</v>
+        <v>0.964841080051924</v>
       </c>
       <c r="E13">
-        <v>0.9520955098776341</v>
+        <v>0.9478789370104537</v>
       </c>
       <c r="F13">
-        <v>0.9625565928332871</v>
+        <v>0.8902717237474134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023713985609255</v>
+        <v>1.021622843907613</v>
       </c>
       <c r="J13">
-        <v>0.9724755993222749</v>
+        <v>0.9637808045946726</v>
       </c>
       <c r="K13">
-        <v>0.9879017988606537</v>
+        <v>0.9806279386202926</v>
       </c>
       <c r="L13">
-        <v>0.9681545172429088</v>
+        <v>0.9640301210414008</v>
       </c>
       <c r="M13">
-        <v>0.9783915291613222</v>
+        <v>0.9078009537457419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9421734683166355</v>
+        <v>0.9325960363037872</v>
       </c>
       <c r="D14">
-        <v>0.9739676496610111</v>
+        <v>0.9661370338675622</v>
       </c>
       <c r="E14">
-        <v>0.9539745100275293</v>
+        <v>0.9493225712024985</v>
       </c>
       <c r="F14">
-        <v>0.964538514757992</v>
+        <v>0.8927640570053768</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024547808477982</v>
+        <v>1.022092860436787</v>
       </c>
       <c r="J14">
-        <v>0.9742061899130126</v>
+        <v>0.9651091451819894</v>
       </c>
       <c r="K14">
-        <v>0.9894154212489086</v>
+        <v>0.9817449657337368</v>
       </c>
       <c r="L14">
-        <v>0.9698381145389466</v>
+        <v>0.9652862651489629</v>
       </c>
       <c r="M14">
-        <v>0.9801795635173446</v>
+        <v>0.9100576520781029</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9435015263490386</v>
+        <v>0.9336722414576961</v>
       </c>
       <c r="D15">
-        <v>0.9750049492767465</v>
+        <v>0.966929424015993</v>
       </c>
       <c r="E15">
-        <v>0.9551219004106762</v>
+        <v>0.9502052997030191</v>
       </c>
       <c r="F15">
-        <v>0.9657490503032131</v>
+        <v>0.8942857018760513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025056579151848</v>
+        <v>1.022379855252828</v>
       </c>
       <c r="J15">
-        <v>0.975262732876511</v>
+        <v>0.9659209119272456</v>
       </c>
       <c r="K15">
-        <v>0.9903395000203036</v>
+        <v>0.9824275932988503</v>
       </c>
       <c r="L15">
-        <v>0.970865896858443</v>
+        <v>0.9660540466601487</v>
       </c>
       <c r="M15">
-        <v>0.9812714376359928</v>
+        <v>0.9114354667300871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9510547827691781</v>
+        <v>0.9398103864899378</v>
       </c>
       <c r="D16">
-        <v>0.9809093921817109</v>
+        <v>0.9714526181015409</v>
       </c>
       <c r="E16">
-        <v>0.9616504004792296</v>
+        <v>0.9552448944649515</v>
       </c>
       <c r="F16">
-        <v>0.9726412200179277</v>
+        <v>0.9029403030404044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027945448543591</v>
+        <v>1.02401224347184</v>
       </c>
       <c r="J16">
-        <v>0.9812710306230333</v>
+        <v>0.9705485662451095</v>
       </c>
       <c r="K16">
-        <v>0.9955943857478039</v>
+        <v>0.9863189117794129</v>
       </c>
       <c r="L16">
-        <v>0.9767095663275184</v>
+        <v>0.9704329154254747</v>
       </c>
       <c r="M16">
-        <v>0.9874844726164067</v>
+        <v>0.9192722889523525</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556466775435905</v>
+        <v>0.9435560137568711</v>
       </c>
       <c r="D17">
-        <v>0.9845027886878941</v>
+        <v>0.9742158026117241</v>
       </c>
       <c r="E17">
-        <v>0.9656214740500144</v>
+        <v>0.9583242761240841</v>
       </c>
       <c r="F17">
-        <v>0.9768372487636687</v>
+        <v>0.9082023781223335</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029697384867144</v>
+        <v>1.02500432600562</v>
       </c>
       <c r="J17">
-        <v>0.9849228586056475</v>
+        <v>0.9733704525363176</v>
       </c>
       <c r="K17">
-        <v>0.9987881081194128</v>
+        <v>0.9886915479985324</v>
       </c>
       <c r="L17">
-        <v>0.9802603853628611</v>
+        <v>0.9731047419917914</v>
       </c>
       <c r="M17">
-        <v>0.9912639707812733</v>
+        <v>0.9240371901975424</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582758811268933</v>
+        <v>0.9457053173573949</v>
       </c>
       <c r="D18">
-        <v>0.986561533696557</v>
+        <v>0.9758023508822143</v>
       </c>
       <c r="E18">
-        <v>0.9678958924453521</v>
+        <v>0.9600926769267202</v>
       </c>
       <c r="F18">
-        <v>0.9792418258959179</v>
+        <v>0.9112156612854985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030698886213887</v>
+        <v>1.025572106935412</v>
       </c>
       <c r="J18">
-        <v>0.9870134346014775</v>
+        <v>0.9749889649014959</v>
       </c>
       <c r="K18">
-        <v>1.000616335745656</v>
+        <v>0.9900522619415777</v>
       </c>
       <c r="L18">
-        <v>0.9822927920053425</v>
+        <v>0.974637753460054</v>
       </c>
       <c r="M18">
-        <v>0.9934287580946299</v>
+        <v>0.9267657138852669</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.959164335354187</v>
+        <v>0.9464323596733007</v>
       </c>
       <c r="D19">
-        <v>0.987257420998375</v>
+        <v>0.9763391886487675</v>
       </c>
       <c r="E19">
-        <v>0.9686645655923212</v>
+        <v>0.9606911021435174</v>
       </c>
       <c r="F19">
-        <v>0.9800547087114173</v>
+        <v>0.9122339730009241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031037031815311</v>
+        <v>1.025763912520013</v>
       </c>
       <c r="J19">
-        <v>0.9877198082987764</v>
+        <v>0.9755363315976577</v>
       </c>
       <c r="K19">
-        <v>1.001234047268489</v>
+        <v>0.9905124181009036</v>
       </c>
       <c r="L19">
-        <v>0.9829794524636941</v>
+        <v>0.9751562984562562</v>
       </c>
       <c r="M19">
-        <v>0.9941603938887806</v>
+        <v>0.9276877777189267</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9551591703716449</v>
+        <v>0.9431578592311962</v>
       </c>
       <c r="D20">
-        <v>0.984121155143171</v>
+        <v>0.9739219752853391</v>
       </c>
       <c r="E20">
-        <v>0.9651998044687541</v>
+        <v>0.957996795056449</v>
       </c>
       <c r="F20">
-        <v>0.9763915544737074</v>
+        <v>0.9076436860270991</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029511553927021</v>
+        <v>1.024899023574583</v>
       </c>
       <c r="J20">
-        <v>0.9845351923225661</v>
+        <v>0.9730705663282485</v>
       </c>
       <c r="K20">
-        <v>0.9984490821103629</v>
+        <v>0.9884394167160061</v>
       </c>
       <c r="L20">
-        <v>0.9798834776688398</v>
+        <v>0.9728207433072251</v>
       </c>
       <c r="M20">
-        <v>0.9908626335828418</v>
+        <v>0.9235312891045389</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9415354734098286</v>
+        <v>0.9320793595632497</v>
       </c>
       <c r="D21">
-        <v>0.9734694276253082</v>
+        <v>0.9657566867339168</v>
       </c>
       <c r="E21">
-        <v>0.9534233616051153</v>
+        <v>0.9488988731770874</v>
       </c>
       <c r="F21">
-        <v>0.9639571149278749</v>
+        <v>0.8920330641083928</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024303313815328</v>
+        <v>1.021954997540496</v>
       </c>
       <c r="J21">
-        <v>0.973698619751312</v>
+        <v>0.9647193826262012</v>
       </c>
       <c r="K21">
-        <v>0.9889714867647488</v>
+        <v>0.9814172071988356</v>
       </c>
       <c r="L21">
-        <v>0.9693443419641538</v>
+        <v>0.9649176581146985</v>
       </c>
       <c r="M21">
-        <v>0.9796550905766163</v>
+        <v>0.909395762881315</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9324465989718773</v>
+        <v>0.9247424313338247</v>
       </c>
       <c r="D22">
-        <v>0.9663785520666972</v>
+        <v>0.9603609055539611</v>
       </c>
       <c r="E22">
-        <v>0.9455757178258613</v>
+        <v>0.9428887519303984</v>
       </c>
       <c r="F22">
-        <v>0.9556842703762836</v>
+        <v>0.8816189162746078</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020814851513833</v>
+        <v>1.019992095049337</v>
       </c>
       <c r="J22">
-        <v>0.9664673263590491</v>
+        <v>0.9591819608814255</v>
       </c>
       <c r="K22">
-        <v>0.9826468336697533</v>
+        <v>0.9767607557670414</v>
       </c>
       <c r="L22">
-        <v>0.9623083350719139</v>
+        <v>0.9596833431688644</v>
       </c>
       <c r="M22">
-        <v>0.9721878938283109</v>
+        <v>0.8999669196567044</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9373187778782143</v>
+        <v>0.9286699185271629</v>
       </c>
       <c r="D23">
-        <v>0.9701780841271026</v>
+        <v>0.9632480561004135</v>
       </c>
       <c r="E23">
-        <v>0.9497815707311881</v>
+        <v>0.9461044833235333</v>
       </c>
       <c r="F23">
-        <v>0.9601167287631632</v>
+        <v>0.8872016663288727</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022686083560098</v>
+        <v>1.021044024477831</v>
       </c>
       <c r="J23">
-        <v>0.9703438080414413</v>
+        <v>0.9621467810959985</v>
       </c>
       <c r="K23">
-        <v>0.9860372753602731</v>
+        <v>0.9792538609639655</v>
       </c>
       <c r="L23">
-        <v>0.9660804214447714</v>
+        <v>0.9624852838924352</v>
       </c>
       <c r="M23">
-        <v>0.9761897018842066</v>
+        <v>0.9050212607372425</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9553796050061758</v>
+        <v>0.9433378771593229</v>
       </c>
       <c r="D24">
-        <v>0.9842937133416404</v>
+        <v>0.9740548206271741</v>
       </c>
       <c r="E24">
-        <v>0.9653904674212918</v>
+        <v>0.9581448549993725</v>
       </c>
       <c r="F24">
-        <v>0.9765930763940598</v>
+        <v>0.9078963070084985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029595585577682</v>
+        <v>1.024946638702356</v>
       </c>
       <c r="J24">
-        <v>0.9847104833721154</v>
+        <v>0.9732061564065263</v>
       </c>
       <c r="K24">
-        <v>0.9986023797914036</v>
+        <v>0.9885534153654378</v>
       </c>
       <c r="L24">
-        <v>0.9800539050809639</v>
+        <v>0.9729491482674187</v>
       </c>
       <c r="M24">
-        <v>0.9910441027197125</v>
+        <v>0.9237600400403151</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744317390129708</v>
+        <v>0.9589836716409189</v>
       </c>
       <c r="D25">
-        <v>0.999230498292907</v>
+        <v>0.9856185459778425</v>
       </c>
       <c r="E25">
-        <v>0.9818811226865369</v>
+        <v>0.9710402817456623</v>
       </c>
       <c r="F25">
-        <v>0.9940496047657342</v>
+        <v>0.9297407593449568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036823055601448</v>
+        <v>1.029052548467821</v>
       </c>
       <c r="J25">
-        <v>0.9998513156677201</v>
+        <v>0.9849748830518921</v>
       </c>
       <c r="K25">
-        <v>1.011840771540643</v>
+        <v>0.9984442949496878</v>
       </c>
       <c r="L25">
-        <v>0.9947673774535354</v>
+        <v>0.984105436391687</v>
       </c>
       <c r="M25">
-        <v>1.006741000652541</v>
+        <v>0.9435373582600461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9705631436618437</v>
+        <v>1.018743969687404</v>
       </c>
       <c r="D2">
-        <v>0.9941961790705794</v>
+        <v>1.035257757192791</v>
       </c>
       <c r="E2">
-        <v>0.9806184777333062</v>
+        <v>1.031669210888912</v>
       </c>
       <c r="F2">
-        <v>0.945785108106359</v>
+        <v>1.040228423710752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032042241488382</v>
+        <v>1.050324979240514</v>
       </c>
       <c r="J2">
-        <v>0.9936614251747983</v>
+        <v>1.04037814889362</v>
       </c>
       <c r="K2">
-        <v>1.005736966937617</v>
+        <v>1.046246812830828</v>
       </c>
       <c r="L2">
-        <v>0.992354598841842</v>
+        <v>1.042704293451013</v>
       </c>
       <c r="M2">
-        <v>0.9580552383352615</v>
+        <v>1.051154379926157</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9785303306517363</v>
+        <v>1.022625810350559</v>
       </c>
       <c r="D3">
-        <v>1.000105127097474</v>
+        <v>1.038112528932682</v>
       </c>
       <c r="E3">
-        <v>0.987225480132129</v>
+        <v>1.034840092048629</v>
       </c>
       <c r="F3">
-        <v>0.9567753737175871</v>
+        <v>1.043621855818596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034069283118519</v>
+        <v>1.051366531998242</v>
       </c>
       <c r="J3">
-        <v>0.9996238983106245</v>
+        <v>1.042518117073461</v>
       </c>
       <c r="K3">
-        <v>1.010736662979442</v>
+        <v>1.048279914915494</v>
       </c>
       <c r="L3">
-        <v>0.998024465569204</v>
+        <v>1.045045780336754</v>
       </c>
       <c r="M3">
-        <v>0.9679929204072671</v>
+        <v>1.053725427946151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9835038591294724</v>
+        <v>1.025093535543663</v>
       </c>
       <c r="D4">
-        <v>1.003795975361824</v>
+        <v>1.039930562037668</v>
       </c>
       <c r="E4">
-        <v>0.99135682754993</v>
+        <v>1.036861461552905</v>
       </c>
       <c r="F4">
-        <v>0.9636191248697692</v>
+        <v>1.045784920459887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035320294460628</v>
+        <v>1.052020847688814</v>
       </c>
       <c r="J4">
-        <v>1.003339162551438</v>
+        <v>1.043876421195847</v>
       </c>
       <c r="K4">
-        <v>1.013848801191196</v>
+        <v>1.049569811326457</v>
       </c>
       <c r="L4">
-        <v>1.001560699675185</v>
+        <v>1.046534460646304</v>
       </c>
       <c r="M4">
-        <v>0.9741774153158135</v>
+        <v>1.055360465186334</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9855541015354241</v>
+        <v>1.026120729439498</v>
       </c>
       <c r="D5">
-        <v>1.005317827276138</v>
+        <v>1.040688055216421</v>
       </c>
       <c r="E5">
-        <v>0.9930614443737668</v>
+        <v>1.037704171943197</v>
       </c>
       <c r="F5">
-        <v>0.9664369925066263</v>
+        <v>1.04668666355727</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03583247824568</v>
+        <v>1.052291303805652</v>
       </c>
       <c r="J5">
-        <v>1.004869038124321</v>
+        <v>1.044441287363956</v>
       </c>
       <c r="K5">
-        <v>1.015129491067364</v>
+        <v>1.050106084467629</v>
       </c>
       <c r="L5">
-        <v>1.003017616495587</v>
+        <v>1.047154138243191</v>
       </c>
       <c r="M5">
-        <v>0.9767228512038135</v>
+        <v>1.056041162343094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9858960420626479</v>
+        <v>1.026292608423834</v>
       </c>
       <c r="D6">
-        <v>1.005571660091851</v>
+        <v>1.040814847578901</v>
       </c>
       <c r="E6">
-        <v>0.9933458292362973</v>
+        <v>1.037845257759185</v>
       </c>
       <c r="F6">
-        <v>0.9669067810532489</v>
+        <v>1.046837630283831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035917691269708</v>
+        <v>1.052336446121823</v>
       </c>
       <c r="J6">
-        <v>1.0051240922423</v>
+        <v>1.044535773756303</v>
       </c>
       <c r="K6">
-        <v>1.015342951573972</v>
+        <v>1.05019577933463</v>
       </c>
       <c r="L6">
-        <v>1.003260551356193</v>
+        <v>1.047257827964207</v>
       </c>
       <c r="M6">
-        <v>0.9771471604209417</v>
+        <v>1.056155068074718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9835314106223465</v>
+        <v>1.025107300775858</v>
       </c>
       <c r="D7">
-        <v>1.003816424984349</v>
+        <v>1.039940710213024</v>
       </c>
       <c r="E7">
-        <v>0.9913797284789347</v>
+        <v>1.03687274941699</v>
       </c>
       <c r="F7">
-        <v>0.9636570041689004</v>
+        <v>1.045796999205448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035327191320212</v>
+        <v>1.052024479574639</v>
       </c>
       <c r="J7">
-        <v>1.003359727939123</v>
+        <v>1.043883992987622</v>
       </c>
       <c r="K7">
-        <v>1.01386602025935</v>
+        <v>1.049577000421715</v>
       </c>
       <c r="L7">
-        <v>1.001580281325311</v>
+        <v>1.046542764818099</v>
       </c>
       <c r="M7">
-        <v>0.9742116364479538</v>
+        <v>1.055369586685739</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9732951698080622</v>
+        <v>1.02006517871475</v>
       </c>
       <c r="D8">
-        <v>0.9962218550598766</v>
+        <v>1.03622869721211</v>
       </c>
       <c r="E8">
-        <v>0.9828825454933271</v>
+        <v>1.032747246126007</v>
       </c>
       <c r="F8">
-        <v>0.9495578457784603</v>
+        <v>1.041382159955162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032740332841221</v>
+        <v>1.050681094471655</v>
       </c>
       <c r="J8">
-        <v>0.9957074383072976</v>
+        <v>1.041106922434585</v>
       </c>
       <c r="K8">
-        <v>1.007453248110293</v>
+        <v>1.04693930948066</v>
       </c>
       <c r="L8">
-        <v>0.9942994868588068</v>
+        <v>1.043501178976199</v>
       </c>
       <c r="M8">
-        <v>0.9614674022857863</v>
+        <v>1.052029307659621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9537165194397664</v>
+        <v>1.010827796434633</v>
       </c>
       <c r="D9">
-        <v>0.9817219032035684</v>
+        <v>1.029455548765712</v>
       </c>
       <c r="E9">
-        <v>0.9666930642727886</v>
+        <v>1.025235119815606</v>
       </c>
       <c r="F9">
-        <v>0.9224101277319513</v>
+        <v>1.033341690521166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027677941833524</v>
+        <v>1.048159546092893</v>
       </c>
       <c r="J9">
-        <v>0.9810166309219848</v>
+        <v>1.036003907087722</v>
       </c>
       <c r="K9">
-        <v>0.9951186583913759</v>
+        <v>1.04208814660675</v>
       </c>
       <c r="L9">
-        <v>0.9803506722654706</v>
+        <v>1.0379316251948</v>
       </c>
       <c r="M9">
-        <v>0.9369013807630566</v>
+        <v>1.045916029952143</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9393821385183726</v>
+        <v>1.004410670766663</v>
       </c>
       <c r="D10">
-        <v>0.9711368386465808</v>
+        <v>1.024771605947293</v>
       </c>
       <c r="E10">
-        <v>0.9548930182788965</v>
+        <v>1.020049947008387</v>
       </c>
       <c r="F10">
-        <v>0.9023377759573022</v>
+        <v>1.027790679499229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023898613781436</v>
+        <v>1.046368978823664</v>
       </c>
       <c r="J10">
-        <v>0.9702258322408439</v>
+        <v>1.032450379278024</v>
       </c>
       <c r="K10">
-        <v>0.9860475430382094</v>
+        <v>1.038707555938581</v>
       </c>
       <c r="L10">
-        <v>0.9701274232094259</v>
+        <v>1.034066390025932</v>
       </c>
       <c r="M10">
-        <v>0.9187266874034867</v>
+        <v>1.041675661350992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9328019705830896</v>
+        <v>1.001565385150607</v>
       </c>
       <c r="D11">
-        <v>0.9662886437621289</v>
+        <v>1.02270049077686</v>
       </c>
       <c r="E11">
-        <v>0.9494914632060074</v>
+        <v>1.017759377668496</v>
       </c>
       <c r="F11">
-        <v>0.8930553279735165</v>
+        <v>1.02533819281233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022147794867616</v>
+        <v>1.045566289839297</v>
       </c>
       <c r="J11">
-        <v>0.9652644874061184</v>
+        <v>1.030873186959057</v>
       </c>
       <c r="K11">
-        <v>0.98187559573446</v>
+        <v>1.03720664117958</v>
       </c>
       <c r="L11">
-        <v>0.9654331822928457</v>
+        <v>1.032353973536746</v>
       </c>
       <c r="M11">
-        <v>0.9103213895654847</v>
+        <v>1.039797581180995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9302944249821206</v>
+        <v>1.000498037905769</v>
       </c>
       <c r="D12">
-        <v>0.9644430887302754</v>
+        <v>1.021924469332939</v>
       </c>
       <c r="E12">
-        <v>0.9474356083070512</v>
+        <v>1.016901443484392</v>
       </c>
       <c r="F12">
-        <v>0.8895053887665215</v>
+        <v>1.024419563410612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021478343928717</v>
+        <v>1.045263900028986</v>
       </c>
       <c r="J12">
-        <v>0.9633726932797457</v>
+        <v>1.030281334819377</v>
       </c>
       <c r="K12">
-        <v>0.9802847500299834</v>
+        <v>1.036643349605148</v>
       </c>
       <c r="L12">
-        <v>0.9636442459610595</v>
+        <v>1.031711847278741</v>
       </c>
       <c r="M12">
-        <v>0.9071070861054499</v>
+        <v>1.039093414667345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.930835302935856</v>
+        <v>1.000727469690267</v>
       </c>
       <c r="D13">
-        <v>0.964841080051924</v>
+        <v>1.022091236960795</v>
       </c>
       <c r="E13">
-        <v>0.9478789370104537</v>
+        <v>1.017085800241867</v>
       </c>
       <c r="F13">
-        <v>0.8902717237474134</v>
+        <v>1.024616964889677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021622843907613</v>
+        <v>1.04532895740803</v>
       </c>
       <c r="J13">
-        <v>0.9637808045946726</v>
+        <v>1.030408565030452</v>
       </c>
       <c r="K13">
-        <v>0.9806279386202926</v>
+        <v>1.036764442870983</v>
       </c>
       <c r="L13">
-        <v>0.9640301210414008</v>
+        <v>1.031849863662056</v>
       </c>
       <c r="M13">
-        <v>0.9078009537457419</v>
+        <v>1.039244762104246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9325960363037872</v>
+        <v>1.001477374534353</v>
       </c>
       <c r="D14">
-        <v>0.9661370338675622</v>
+        <v>1.022636483217657</v>
       </c>
       <c r="E14">
-        <v>0.9493225712024985</v>
+        <v>1.017688607494685</v>
       </c>
       <c r="F14">
-        <v>0.8927640570053768</v>
+        <v>1.025262416960953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022092860436787</v>
+        <v>1.045541381348865</v>
       </c>
       <c r="J14">
-        <v>0.9651091451819894</v>
+        <v>1.030824388307232</v>
       </c>
       <c r="K14">
-        <v>0.9817449657337368</v>
+        <v>1.037160198599379</v>
       </c>
       <c r="L14">
-        <v>0.9652862651489629</v>
+        <v>1.032301020191993</v>
       </c>
       <c r="M14">
-        <v>0.9100576520781029</v>
+        <v>1.039739510000434</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9336722414576961</v>
+        <v>1.001938012205858</v>
       </c>
       <c r="D15">
-        <v>0.966929424015993</v>
+        <v>1.022971529153907</v>
       </c>
       <c r="E15">
-        <v>0.9502052997030191</v>
+        <v>1.018059064903115</v>
       </c>
       <c r="F15">
-        <v>0.8942857018760513</v>
+        <v>1.025659075345902</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022379855252828</v>
+        <v>1.045671697675644</v>
       </c>
       <c r="J15">
-        <v>0.9659209119272456</v>
+        <v>1.031079786924196</v>
       </c>
       <c r="K15">
-        <v>0.9824275932988503</v>
+        <v>1.037403263669666</v>
       </c>
       <c r="L15">
-        <v>0.9660540466601487</v>
+        <v>1.032578182479141</v>
       </c>
       <c r="M15">
-        <v>0.9114354667300871</v>
+        <v>1.040043462772049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9398103864899378</v>
+        <v>1.004598059602224</v>
       </c>
       <c r="D16">
-        <v>0.9714526181015409</v>
+        <v>1.024908132001386</v>
       </c>
       <c r="E16">
-        <v>0.9552448944649515</v>
+        <v>1.02020098367062</v>
       </c>
       <c r="F16">
-        <v>0.9029403030404044</v>
+        <v>1.027952386088675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02401224347184</v>
+        <v>1.046421663692101</v>
       </c>
       <c r="J16">
-        <v>0.9705485662451095</v>
+        <v>1.032554222042642</v>
       </c>
       <c r="K16">
-        <v>0.9863189117794129</v>
+        <v>1.038806367320504</v>
       </c>
       <c r="L16">
-        <v>0.9704329154254747</v>
+        <v>1.034179201181348</v>
       </c>
       <c r="M16">
-        <v>0.9192722889523525</v>
+        <v>1.041799397325976</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9435560137568711</v>
+        <v>1.006248474445648</v>
       </c>
       <c r="D17">
-        <v>0.9742158026117241</v>
+        <v>1.026111232783921</v>
       </c>
       <c r="E17">
-        <v>0.9583242761240841</v>
+        <v>1.02153220257198</v>
       </c>
       <c r="F17">
-        <v>0.9082023781223335</v>
+        <v>1.029377613004163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02500432600562</v>
+        <v>1.046884686280859</v>
       </c>
       <c r="J17">
-        <v>0.9733704525363176</v>
+        <v>1.033468632731178</v>
       </c>
       <c r="K17">
-        <v>0.9886915479985324</v>
+        <v>1.039676419518227</v>
       </c>
       <c r="L17">
-        <v>0.9731047419917914</v>
+        <v>1.035172941245683</v>
       </c>
       <c r="M17">
-        <v>0.9240371901975424</v>
+        <v>1.042889433619331</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9457053173573949</v>
+        <v>1.007204738100436</v>
       </c>
       <c r="D18">
-        <v>0.9758023508822143</v>
+        <v>1.02680885702723</v>
       </c>
       <c r="E18">
-        <v>0.9600926769267202</v>
+        <v>1.022304325033212</v>
       </c>
       <c r="F18">
-        <v>0.9112156612854985</v>
+        <v>1.030204232133972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025572106935412</v>
+        <v>1.047152128307767</v>
       </c>
       <c r="J18">
-        <v>0.9749889649014959</v>
+        <v>1.033998295335477</v>
       </c>
       <c r="K18">
-        <v>0.9900522619415777</v>
+        <v>1.040180341844081</v>
       </c>
       <c r="L18">
-        <v>0.974637753460054</v>
+        <v>1.035748851480667</v>
       </c>
       <c r="M18">
-        <v>0.9267657138852669</v>
+        <v>1.043521201746181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9464323596733007</v>
+        <v>1.007529728400048</v>
       </c>
       <c r="D19">
-        <v>0.9763391886487675</v>
+        <v>1.027046037202267</v>
       </c>
       <c r="E19">
-        <v>0.9606911021435174</v>
+        <v>1.022566869022172</v>
       </c>
       <c r="F19">
-        <v>0.9122339730009241</v>
+        <v>1.030485301720935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025763912520013</v>
+        <v>1.047242876498363</v>
       </c>
       <c r="J19">
-        <v>0.9755363315976577</v>
+        <v>1.034178276175885</v>
       </c>
       <c r="K19">
-        <v>0.9905124181009036</v>
+        <v>1.04035156798793</v>
       </c>
       <c r="L19">
-        <v>0.9751562984562562</v>
+        <v>1.035944597756935</v>
       </c>
       <c r="M19">
-        <v>0.9276877777189267</v>
+        <v>1.043735942128193</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9431578592311962</v>
+        <v>1.006072065380246</v>
       </c>
       <c r="D20">
-        <v>0.9739219752853391</v>
+        <v>1.02598257990936</v>
       </c>
       <c r="E20">
-        <v>0.957996795056449</v>
+        <v>1.021389827962721</v>
       </c>
       <c r="F20">
-        <v>0.9076436860270991</v>
+        <v>1.029225187219035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024899023574583</v>
+        <v>1.046835281376857</v>
       </c>
       <c r="J20">
-        <v>0.9730705663282485</v>
+        <v>1.033370909207282</v>
       </c>
       <c r="K20">
-        <v>0.9884394167160061</v>
+        <v>1.039583441327306</v>
       </c>
       <c r="L20">
-        <v>0.9728207433072251</v>
+        <v>1.035066708953713</v>
       </c>
       <c r="M20">
-        <v>0.9235312891045389</v>
+        <v>1.042772901869116</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9320793595632497</v>
+        <v>1.001256839510894</v>
       </c>
       <c r="D21">
-        <v>0.9657566867339168</v>
+        <v>1.022476109418584</v>
       </c>
       <c r="E21">
-        <v>0.9488988731770874</v>
+        <v>1.017511294680579</v>
       </c>
       <c r="F21">
-        <v>0.8920330641083928</v>
+        <v>1.025072561753649</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021954997540496</v>
+        <v>1.045478945746101</v>
       </c>
       <c r="J21">
-        <v>0.9647193826262012</v>
+        <v>1.030702106605858</v>
       </c>
       <c r="K21">
-        <v>0.9814172071988356</v>
+        <v>1.037043819854207</v>
       </c>
       <c r="L21">
-        <v>0.9649176581146985</v>
+        <v>1.03216833505794</v>
       </c>
       <c r="M21">
-        <v>0.909395762881315</v>
+        <v>1.039594002415364</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9247424313338247</v>
+        <v>0.9981684198227749</v>
       </c>
       <c r="D22">
-        <v>0.9603609055539611</v>
+        <v>1.020232447081131</v>
       </c>
       <c r="E22">
-        <v>0.9428887519303984</v>
+        <v>1.015031382387865</v>
       </c>
       <c r="F22">
-        <v>0.8816189162746078</v>
+        <v>1.022417110298274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019992095049337</v>
+        <v>1.04460159222365</v>
       </c>
       <c r="J22">
-        <v>0.9591819608814255</v>
+        <v>1.028989213694103</v>
       </c>
       <c r="K22">
-        <v>0.9767607557670414</v>
+        <v>1.03541347537406</v>
       </c>
       <c r="L22">
-        <v>0.9596833431688644</v>
+        <v>1.030310832279821</v>
       </c>
       <c r="M22">
-        <v>0.8999669196567044</v>
+        <v>1.037557187223477</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9286699185271629</v>
+        <v>0.9998115863437426</v>
       </c>
       <c r="D23">
-        <v>0.9632480561004135</v>
+        <v>1.021425644846977</v>
       </c>
       <c r="E23">
-        <v>0.9461044833235333</v>
+        <v>1.016350052538159</v>
       </c>
       <c r="F23">
-        <v>0.8872016663288727</v>
+        <v>1.023829149728212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021044024477831</v>
+        <v>1.045069066474846</v>
       </c>
       <c r="J23">
-        <v>0.9621467810959985</v>
+        <v>1.029900639885086</v>
       </c>
       <c r="K23">
-        <v>0.9792538609639655</v>
+        <v>1.036281008922825</v>
       </c>
       <c r="L23">
-        <v>0.9624852838924352</v>
+        <v>1.031298947106743</v>
       </c>
       <c r="M23">
-        <v>0.9050212607372425</v>
+        <v>1.038640644213198</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9433378771593229</v>
+        <v>1.006151796773347</v>
       </c>
       <c r="D24">
-        <v>0.9740548206271741</v>
+        <v>1.026040725331513</v>
       </c>
       <c r="E24">
-        <v>0.9581448549993725</v>
+        <v>1.021454174357279</v>
       </c>
       <c r="F24">
-        <v>0.9078963070084985</v>
+        <v>1.029294076345776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024946638702356</v>
+        <v>1.046857613448685</v>
       </c>
       <c r="J24">
-        <v>0.9732061564065263</v>
+        <v>1.033415077671865</v>
       </c>
       <c r="K24">
-        <v>0.9885534153654378</v>
+        <v>1.039625465169633</v>
       </c>
       <c r="L24">
-        <v>0.9729491482674187</v>
+        <v>1.035114722237553</v>
       </c>
       <c r="M24">
-        <v>0.9237600400403151</v>
+        <v>1.042825569991583</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9589836716409189</v>
+        <v>1.013259835026824</v>
       </c>
       <c r="D25">
-        <v>0.9856185459778425</v>
+        <v>1.031235319773367</v>
       </c>
       <c r="E25">
-        <v>0.9710402817456623</v>
+        <v>1.027207322964656</v>
       </c>
       <c r="F25">
-        <v>0.9297407593449568</v>
+        <v>1.035452792197735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029052548467821</v>
+        <v>1.048830291091991</v>
       </c>
       <c r="J25">
-        <v>0.9849748830518921</v>
+        <v>1.037349047193174</v>
       </c>
       <c r="K25">
-        <v>0.9984442949496878</v>
+        <v>1.043367353377712</v>
       </c>
       <c r="L25">
-        <v>0.984105436391687</v>
+        <v>1.0393974673293</v>
       </c>
       <c r="M25">
-        <v>0.9435373582600461</v>
+        <v>1.04752459439627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018743969687404</v>
+        <v>1.043815935548006</v>
       </c>
       <c r="D2">
-        <v>1.035257757192791</v>
+        <v>1.049538552686424</v>
       </c>
       <c r="E2">
-        <v>1.031669210888912</v>
+        <v>1.051145469825808</v>
       </c>
       <c r="F2">
-        <v>1.040228423710752</v>
+        <v>1.060444702202214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050324979240514</v>
+        <v>1.042099601595074</v>
       </c>
       <c r="J2">
-        <v>1.04037814889362</v>
+        <v>1.048884356127076</v>
       </c>
       <c r="K2">
-        <v>1.046246812830828</v>
+        <v>1.052295331454685</v>
       </c>
       <c r="L2">
-        <v>1.042704293451013</v>
+        <v>1.053897783459321</v>
       </c>
       <c r="M2">
-        <v>1.051154379926157</v>
+        <v>1.063171463885072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022625810350559</v>
+        <v>1.044651734251337</v>
       </c>
       <c r="D3">
-        <v>1.038112528932682</v>
+        <v>1.050179079792162</v>
       </c>
       <c r="E3">
-        <v>1.034840092048629</v>
+        <v>1.051877682932876</v>
       </c>
       <c r="F3">
-        <v>1.043621855818596</v>
+        <v>1.061230918130278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051366531998242</v>
+        <v>1.042279994197488</v>
       </c>
       <c r="J3">
-        <v>1.042518117073461</v>
+        <v>1.049367719817893</v>
       </c>
       <c r="K3">
-        <v>1.048279914915494</v>
+        <v>1.052748568350864</v>
       </c>
       <c r="L3">
-        <v>1.045045780336754</v>
+        <v>1.054442791257497</v>
       </c>
       <c r="M3">
-        <v>1.053725427946151</v>
+        <v>1.06377217776078</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025093535543663</v>
+        <v>1.045193311793747</v>
       </c>
       <c r="D4">
-        <v>1.039930562037668</v>
+        <v>1.050594204827494</v>
       </c>
       <c r="E4">
-        <v>1.036861461552905</v>
+        <v>1.05235252093768</v>
       </c>
       <c r="F4">
-        <v>1.045784920459887</v>
+        <v>1.061740776097747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052020847688814</v>
+        <v>1.042395899665549</v>
       </c>
       <c r="J4">
-        <v>1.043876421195847</v>
+        <v>1.049680567186651</v>
       </c>
       <c r="K4">
-        <v>1.049569811326457</v>
+        <v>1.053041814022179</v>
       </c>
       <c r="L4">
-        <v>1.046534460646304</v>
+        <v>1.054795823223241</v>
       </c>
       <c r="M4">
-        <v>1.055360465186334</v>
+        <v>1.064161341732753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026120729439498</v>
+        <v>1.045421171120801</v>
       </c>
       <c r="D5">
-        <v>1.040688055216421</v>
+        <v>1.050768879800691</v>
       </c>
       <c r="E5">
-        <v>1.037704171943197</v>
+        <v>1.052552391564493</v>
       </c>
       <c r="F5">
-        <v>1.04668666355727</v>
+        <v>1.061955387334944</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052291303805652</v>
+        <v>1.042444429123199</v>
       </c>
       <c r="J5">
-        <v>1.044441287363956</v>
+        <v>1.049812105696021</v>
       </c>
       <c r="K5">
-        <v>1.050106084467629</v>
+        <v>1.05316508620039</v>
       </c>
       <c r="L5">
-        <v>1.047154138243191</v>
+        <v>1.05494432621963</v>
       </c>
       <c r="M5">
-        <v>1.056041162343094</v>
+        <v>1.064325055170559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026292608423834</v>
+        <v>1.045459440215225</v>
       </c>
       <c r="D6">
-        <v>1.040814847578901</v>
+        <v>1.050798217614563</v>
       </c>
       <c r="E6">
-        <v>1.037845257759185</v>
+        <v>1.05258596525072</v>
       </c>
       <c r="F6">
-        <v>1.046837630283831</v>
+        <v>1.061991437099861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052336446121823</v>
+        <v>1.042452565847062</v>
       </c>
       <c r="J6">
-        <v>1.044535773756303</v>
+        <v>1.049834192575352</v>
       </c>
       <c r="K6">
-        <v>1.05019577933463</v>
+        <v>1.053185783614536</v>
       </c>
       <c r="L6">
-        <v>1.047257827964207</v>
+        <v>1.054969265662977</v>
       </c>
       <c r="M6">
-        <v>1.056155068074718</v>
+        <v>1.064352549714412</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025107300775858</v>
+        <v>1.045196355755686</v>
       </c>
       <c r="D7">
-        <v>1.039940710213024</v>
+        <v>1.050596538230818</v>
       </c>
       <c r="E7">
-        <v>1.03687274941699</v>
+        <v>1.052355190643909</v>
       </c>
       <c r="F7">
-        <v>1.045796999205448</v>
+        <v>1.061743642697277</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052024479574639</v>
+        <v>1.042396548894332</v>
       </c>
       <c r="J7">
-        <v>1.043883992987622</v>
+        <v>1.049682324743708</v>
       </c>
       <c r="K7">
-        <v>1.049577000421715</v>
+        <v>1.053043461225413</v>
       </c>
       <c r="L7">
-        <v>1.046542764818099</v>
+        <v>1.054797807182284</v>
       </c>
       <c r="M7">
-        <v>1.055369586685739</v>
+        <v>1.064163528853916</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02006517871475</v>
+        <v>1.044098239213874</v>
       </c>
       <c r="D8">
-        <v>1.03622869721211</v>
+        <v>1.049754883794086</v>
       </c>
       <c r="E8">
-        <v>1.032747246126007</v>
+        <v>1.051392706671527</v>
       </c>
       <c r="F8">
-        <v>1.041382159955162</v>
+        <v>1.060710173647076</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050681094471655</v>
+        <v>1.042160735583044</v>
       </c>
       <c r="J8">
-        <v>1.041106922434585</v>
+        <v>1.049047694019337</v>
       </c>
       <c r="K8">
-        <v>1.04693930948066</v>
+        <v>1.052448510140689</v>
       </c>
       <c r="L8">
-        <v>1.043501178976199</v>
+        <v>1.054081892730562</v>
       </c>
       <c r="M8">
-        <v>1.052029307659621</v>
+        <v>1.063374381295929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010827796434633</v>
+        <v>1.042169116813205</v>
       </c>
       <c r="D9">
-        <v>1.029455548765712</v>
+        <v>1.048276927857721</v>
       </c>
       <c r="E9">
-        <v>1.025235119815606</v>
+        <v>1.049704793788198</v>
       </c>
       <c r="F9">
-        <v>1.033341690521166</v>
+        <v>1.058897766640684</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048159546092893</v>
+        <v>1.041738950584611</v>
       </c>
       <c r="J9">
-        <v>1.036003907087722</v>
+        <v>1.047930057482039</v>
       </c>
       <c r="K9">
-        <v>1.04208814660675</v>
+        <v>1.051399970041467</v>
       </c>
       <c r="L9">
-        <v>1.0379316251948</v>
+        <v>1.05282330346788</v>
       </c>
       <c r="M9">
-        <v>1.045916029952143</v>
+        <v>1.061987414684262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004410670766663</v>
+        <v>1.040887108618459</v>
       </c>
       <c r="D10">
-        <v>1.024771605947293</v>
+        <v>1.047295196450146</v>
       </c>
       <c r="E10">
-        <v>1.020049947008387</v>
+        <v>1.048585086532085</v>
       </c>
       <c r="F10">
-        <v>1.027790679499229</v>
+        <v>1.057695466579441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046368978823664</v>
+        <v>1.041453601914086</v>
       </c>
       <c r="J10">
-        <v>1.032450379278024</v>
+        <v>1.047185495002342</v>
       </c>
       <c r="K10">
-        <v>1.038707555938581</v>
+        <v>1.050700918160561</v>
       </c>
       <c r="L10">
-        <v>1.034066390025932</v>
+        <v>1.05198631457484</v>
       </c>
       <c r="M10">
-        <v>1.041675661350992</v>
+        <v>1.061065299510577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001565385150607</v>
+        <v>1.040332973678517</v>
       </c>
       <c r="D11">
-        <v>1.02270049077686</v>
+        <v>1.046870967050995</v>
       </c>
       <c r="E11">
-        <v>1.017759377668496</v>
+        <v>1.048101586469411</v>
       </c>
       <c r="F11">
-        <v>1.02533819281233</v>
+        <v>1.057176299875375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045566289839297</v>
+        <v>1.041329065857246</v>
       </c>
       <c r="J11">
-        <v>1.030873186959057</v>
+        <v>1.046863233978085</v>
       </c>
       <c r="K11">
-        <v>1.03720664117958</v>
+        <v>1.050398232498861</v>
       </c>
       <c r="L11">
-        <v>1.032353973536746</v>
+        <v>1.051624399658693</v>
       </c>
       <c r="M11">
-        <v>1.039797581180995</v>
+        <v>1.060666634663245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000498037905769</v>
+        <v>1.040127292808015</v>
       </c>
       <c r="D12">
-        <v>1.021924469332939</v>
+        <v>1.046713521522233</v>
       </c>
       <c r="E12">
-        <v>1.016901443484392</v>
+        <v>1.047922196452124</v>
       </c>
       <c r="F12">
-        <v>1.024419563410612</v>
+        <v>1.056983676296424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045263900028986</v>
+        <v>1.041282661409161</v>
       </c>
       <c r="J12">
-        <v>1.030281334819377</v>
+        <v>1.046743554239387</v>
       </c>
       <c r="K12">
-        <v>1.036643349605148</v>
+        <v>1.050285804244548</v>
       </c>
       <c r="L12">
-        <v>1.031711847278741</v>
+        <v>1.0514900460581</v>
       </c>
       <c r="M12">
-        <v>1.039093414667345</v>
+        <v>1.060518647230812</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000727469690267</v>
+        <v>1.040171405257563</v>
       </c>
       <c r="D13">
-        <v>1.022091236960795</v>
+        <v>1.0467472881111</v>
       </c>
       <c r="E13">
-        <v>1.017085800241867</v>
+        <v>1.047960666981426</v>
       </c>
       <c r="F13">
-        <v>1.024616964889677</v>
+        <v>1.057024984806473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04532895740803</v>
+        <v>1.041292621925092</v>
       </c>
       <c r="J13">
-        <v>1.030408565030452</v>
+        <v>1.046769224915462</v>
       </c>
       <c r="K13">
-        <v>1.036764442870983</v>
+        <v>1.050309920342894</v>
       </c>
       <c r="L13">
-        <v>1.031849863662056</v>
+        <v>1.051518861819554</v>
       </c>
       <c r="M13">
-        <v>1.039244762104246</v>
+        <v>1.060550386735954</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001477374534353</v>
+        <v>1.040315968972892</v>
       </c>
       <c r="D14">
-        <v>1.022636483217657</v>
+        <v>1.046857949847288</v>
       </c>
       <c r="E14">
-        <v>1.017688607494685</v>
+        <v>1.048086753872908</v>
       </c>
       <c r="F14">
-        <v>1.025262416960953</v>
+        <v>1.057160373089741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045541381348865</v>
+        <v>1.041325233029409</v>
       </c>
       <c r="J14">
-        <v>1.030824388307232</v>
+        <v>1.046853340749403</v>
       </c>
       <c r="K14">
-        <v>1.037160198599379</v>
+        <v>1.050388939081495</v>
       </c>
       <c r="L14">
-        <v>1.032301020191993</v>
+        <v>1.05161329235373</v>
       </c>
       <c r="M14">
-        <v>1.039739510000434</v>
+        <v>1.060654400039322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001938012205858</v>
+        <v>1.040405059316462</v>
       </c>
       <c r="D15">
-        <v>1.022971529153907</v>
+        <v>1.046926149765428</v>
       </c>
       <c r="E15">
-        <v>1.018059064903115</v>
+        <v>1.048164467185743</v>
       </c>
       <c r="F15">
-        <v>1.025659075345902</v>
+        <v>1.057243819237105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045671697675644</v>
+        <v>1.041345306455145</v>
       </c>
       <c r="J15">
-        <v>1.031079786924196</v>
+        <v>1.046905170295059</v>
       </c>
       <c r="K15">
-        <v>1.037403263669666</v>
+        <v>1.050437625531358</v>
       </c>
       <c r="L15">
-        <v>1.032578182479141</v>
+        <v>1.051671484467269</v>
       </c>
       <c r="M15">
-        <v>1.040043462772049</v>
+        <v>1.060718498634638</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004598059602224</v>
+        <v>1.040923905597174</v>
       </c>
       <c r="D16">
-        <v>1.024908132001386</v>
+        <v>1.047323369585478</v>
       </c>
       <c r="E16">
-        <v>1.02020098367062</v>
+        <v>1.048617203256315</v>
       </c>
       <c r="F16">
-        <v>1.027952386088675</v>
+        <v>1.057729952425211</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046421663692101</v>
+        <v>1.04146184641662</v>
       </c>
       <c r="J16">
-        <v>1.032554222042642</v>
+        <v>1.047206885462979</v>
       </c>
       <c r="K16">
-        <v>1.038806367320504</v>
+        <v>1.050721006708998</v>
       </c>
       <c r="L16">
-        <v>1.034179201181348</v>
+        <v>1.052010344487811</v>
       </c>
       <c r="M16">
-        <v>1.041799397325976</v>
+        <v>1.061091770732876</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006248474445648</v>
+        <v>1.041249628643266</v>
       </c>
       <c r="D17">
-        <v>1.026111232783921</v>
+        <v>1.047572768512335</v>
       </c>
       <c r="E17">
-        <v>1.02153220257198</v>
+        <v>1.048901552973092</v>
       </c>
       <c r="F17">
-        <v>1.029377613004163</v>
+        <v>1.058035277205382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046884686280859</v>
+        <v>1.041534687493847</v>
       </c>
       <c r="J17">
-        <v>1.033468632731178</v>
+        <v>1.047396181740938</v>
       </c>
       <c r="K17">
-        <v>1.039676419518227</v>
+        <v>1.050898767485666</v>
       </c>
       <c r="L17">
-        <v>1.035172941245683</v>
+        <v>1.052223039220847</v>
       </c>
       <c r="M17">
-        <v>1.042889433619331</v>
+        <v>1.061326080896414</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007204738100436</v>
+        <v>1.041439712114576</v>
       </c>
       <c r="D18">
-        <v>1.02680885702723</v>
+        <v>1.047718322188808</v>
       </c>
       <c r="E18">
-        <v>1.022304325033212</v>
+        <v>1.04906753856152</v>
       </c>
       <c r="F18">
-        <v>1.030204232133972</v>
+        <v>1.05821350650567</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047152128307767</v>
+        <v>1.041577080029232</v>
       </c>
       <c r="J18">
-        <v>1.033998295335477</v>
+        <v>1.047506608417228</v>
       </c>
       <c r="K18">
-        <v>1.040180341844081</v>
+        <v>1.051002453056457</v>
       </c>
       <c r="L18">
-        <v>1.035748851480667</v>
+        <v>1.05234714925331</v>
       </c>
       <c r="M18">
-        <v>1.043521201746181</v>
+        <v>1.061462809476644</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007529728400048</v>
+        <v>1.041504541678387</v>
       </c>
       <c r="D19">
-        <v>1.027046037202267</v>
+        <v>1.047767966335509</v>
       </c>
       <c r="E19">
-        <v>1.022566869022172</v>
+        <v>1.049124157212142</v>
       </c>
       <c r="F19">
-        <v>1.030485301720935</v>
+        <v>1.05827430152194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047242876498363</v>
+        <v>1.041591518748027</v>
       </c>
       <c r="J19">
-        <v>1.034178276175885</v>
+        <v>1.047544263283518</v>
       </c>
       <c r="K19">
-        <v>1.04035156798793</v>
+        <v>1.051037807235285</v>
       </c>
       <c r="L19">
-        <v>1.035944597756935</v>
+        <v>1.052389475795401</v>
       </c>
       <c r="M19">
-        <v>1.043735942128193</v>
+        <v>1.061509440416201</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006072065380246</v>
+        <v>1.041214671831583</v>
       </c>
       <c r="D20">
-        <v>1.02598257990936</v>
+        <v>1.047546001716821</v>
       </c>
       <c r="E20">
-        <v>1.021389827962721</v>
+        <v>1.048871031560175</v>
       </c>
       <c r="F20">
-        <v>1.029225187219035</v>
+        <v>1.058002504402697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046835281376857</v>
+        <v>1.041526882097812</v>
       </c>
       <c r="J20">
-        <v>1.033370909207282</v>
+        <v>1.047375870649781</v>
       </c>
       <c r="K20">
-        <v>1.039583441327306</v>
+        <v>1.050879695352265</v>
       </c>
       <c r="L20">
-        <v>1.035066708953713</v>
+        <v>1.052200214030666</v>
       </c>
       <c r="M20">
-        <v>1.042772901869116</v>
+        <v>1.061300935474175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001256839510894</v>
+        <v>1.04027339441976</v>
       </c>
       <c r="D21">
-        <v>1.022476109418584</v>
+        <v>1.04682535906039</v>
       </c>
       <c r="E21">
-        <v>1.017511294680579</v>
+        <v>1.048049618793948</v>
       </c>
       <c r="F21">
-        <v>1.025072561753649</v>
+        <v>1.05712049857838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045478945746101</v>
+        <v>1.041315633902107</v>
       </c>
       <c r="J21">
-        <v>1.030702106605858</v>
+        <v>1.046828570104467</v>
       </c>
       <c r="K21">
-        <v>1.037043819854207</v>
+        <v>1.050365669947207</v>
       </c>
       <c r="L21">
-        <v>1.03216833505794</v>
+        <v>1.051585482757133</v>
       </c>
       <c r="M21">
-        <v>1.039594002415364</v>
+        <v>1.060623768092989</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9981684198227749</v>
+        <v>1.03968244192837</v>
       </c>
       <c r="D22">
-        <v>1.020232447081131</v>
+        <v>1.046373028006811</v>
       </c>
       <c r="E22">
-        <v>1.015031382387865</v>
+        <v>1.047534341994152</v>
       </c>
       <c r="F22">
-        <v>1.022417110298274</v>
+        <v>1.05656720914017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04460159222365</v>
+        <v>1.041181968215301</v>
       </c>
       <c r="J22">
-        <v>1.028989213694103</v>
+        <v>1.046484590560359</v>
       </c>
       <c r="K22">
-        <v>1.03541347537406</v>
+        <v>1.050042497964133</v>
       </c>
       <c r="L22">
-        <v>1.030310832279821</v>
+        <v>1.051199427211426</v>
       </c>
       <c r="M22">
-        <v>1.037557187223477</v>
+        <v>1.060198553353738</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9998115863437426</v>
+        <v>1.039995634330643</v>
       </c>
       <c r="D23">
-        <v>1.021425644846977</v>
+        <v>1.046612744042384</v>
       </c>
       <c r="E23">
-        <v>1.016350052538159</v>
+        <v>1.047807387636667</v>
       </c>
       <c r="F23">
-        <v>1.023829149728212</v>
+        <v>1.056860397944913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045069066474846</v>
+        <v>1.041252906822862</v>
       </c>
       <c r="J23">
-        <v>1.029900639885086</v>
+        <v>1.046666927830465</v>
       </c>
       <c r="K23">
-        <v>1.036281008922825</v>
+        <v>1.050213815540461</v>
       </c>
       <c r="L23">
-        <v>1.031298947106743</v>
+        <v>1.051404039342438</v>
       </c>
       <c r="M23">
-        <v>1.038640644213198</v>
+        <v>1.060423915280349</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006151796773347</v>
+        <v>1.041230467017617</v>
       </c>
       <c r="D24">
-        <v>1.026040725331513</v>
+        <v>1.047558096221802</v>
       </c>
       <c r="E24">
-        <v>1.021454174357279</v>
+        <v>1.048884822473929</v>
       </c>
       <c r="F24">
-        <v>1.029294076345776</v>
+        <v>1.058017312593817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046857613448685</v>
+        <v>1.041530409312178</v>
       </c>
       <c r="J24">
-        <v>1.033415077671865</v>
+        <v>1.047385048316496</v>
       </c>
       <c r="K24">
-        <v>1.039625465169633</v>
+        <v>1.050888313226366</v>
       </c>
       <c r="L24">
-        <v>1.035114722237553</v>
+        <v>1.052210527601054</v>
       </c>
       <c r="M24">
-        <v>1.042825569991583</v>
+        <v>1.061312297424724</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013259835026824</v>
+        <v>1.042667131082196</v>
       </c>
       <c r="D25">
-        <v>1.031235319773367</v>
+        <v>1.048658393413763</v>
       </c>
       <c r="E25">
-        <v>1.027207322964656</v>
+        <v>1.050140186920195</v>
       </c>
       <c r="F25">
-        <v>1.035452792197735</v>
+        <v>1.059365273859582</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048830291091991</v>
+        <v>1.041848728390913</v>
       </c>
       <c r="J25">
-        <v>1.037349047193174</v>
+        <v>1.048218906175673</v>
       </c>
       <c r="K25">
-        <v>1.043367353377712</v>
+        <v>1.051671053271619</v>
       </c>
       <c r="L25">
-        <v>1.0393974673293</v>
+        <v>1.053148320704819</v>
       </c>
       <c r="M25">
-        <v>1.04752459439627</v>
+        <v>1.062345540366934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043815935548006</v>
+        <v>1.018743969687403</v>
       </c>
       <c r="D2">
-        <v>1.049538552686424</v>
+        <v>1.03525775719279</v>
       </c>
       <c r="E2">
-        <v>1.051145469825808</v>
+        <v>1.031669210888911</v>
       </c>
       <c r="F2">
-        <v>1.060444702202214</v>
+        <v>1.040228423710751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042099601595074</v>
+        <v>1.050324979240514</v>
       </c>
       <c r="J2">
-        <v>1.048884356127076</v>
+        <v>1.040378148893619</v>
       </c>
       <c r="K2">
-        <v>1.052295331454685</v>
+        <v>1.046246812830828</v>
       </c>
       <c r="L2">
-        <v>1.053897783459321</v>
+        <v>1.042704293451012</v>
       </c>
       <c r="M2">
-        <v>1.063171463885072</v>
+        <v>1.051154379926157</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044651734251337</v>
+        <v>1.022625810350559</v>
       </c>
       <c r="D3">
-        <v>1.050179079792162</v>
+        <v>1.038112528932683</v>
       </c>
       <c r="E3">
-        <v>1.051877682932876</v>
+        <v>1.034840092048629</v>
       </c>
       <c r="F3">
-        <v>1.061230918130278</v>
+        <v>1.043621855818595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042279994197488</v>
+        <v>1.051366531998242</v>
       </c>
       <c r="J3">
-        <v>1.049367719817893</v>
+        <v>1.042518117073461</v>
       </c>
       <c r="K3">
-        <v>1.052748568350864</v>
+        <v>1.048279914915494</v>
       </c>
       <c r="L3">
-        <v>1.054442791257497</v>
+        <v>1.045045780336754</v>
       </c>
       <c r="M3">
-        <v>1.06377217776078</v>
+        <v>1.053725427946151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045193311793747</v>
+        <v>1.025093535543663</v>
       </c>
       <c r="D4">
-        <v>1.050594204827494</v>
+        <v>1.039930562037667</v>
       </c>
       <c r="E4">
-        <v>1.05235252093768</v>
+        <v>1.036861461552905</v>
       </c>
       <c r="F4">
-        <v>1.061740776097747</v>
+        <v>1.045784920459887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042395899665549</v>
+        <v>1.052020847688814</v>
       </c>
       <c r="J4">
-        <v>1.049680567186651</v>
+        <v>1.043876421195847</v>
       </c>
       <c r="K4">
-        <v>1.053041814022179</v>
+        <v>1.049569811326456</v>
       </c>
       <c r="L4">
-        <v>1.054795823223241</v>
+        <v>1.046534460646304</v>
       </c>
       <c r="M4">
-        <v>1.064161341732753</v>
+        <v>1.055360465186334</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045421171120801</v>
+        <v>1.026120729439498</v>
       </c>
       <c r="D5">
-        <v>1.050768879800691</v>
+        <v>1.04068805521642</v>
       </c>
       <c r="E5">
-        <v>1.052552391564493</v>
+        <v>1.037704171943197</v>
       </c>
       <c r="F5">
-        <v>1.061955387334944</v>
+        <v>1.04668666355727</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042444429123199</v>
+        <v>1.052291303805652</v>
       </c>
       <c r="J5">
-        <v>1.049812105696021</v>
+        <v>1.044441287363956</v>
       </c>
       <c r="K5">
-        <v>1.05316508620039</v>
+        <v>1.050106084467629</v>
       </c>
       <c r="L5">
-        <v>1.05494432621963</v>
+        <v>1.047154138243191</v>
       </c>
       <c r="M5">
-        <v>1.064325055170559</v>
+        <v>1.056041162343094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045459440215225</v>
+        <v>1.026292608423833</v>
       </c>
       <c r="D6">
-        <v>1.050798217614563</v>
+        <v>1.040814847578901</v>
       </c>
       <c r="E6">
-        <v>1.05258596525072</v>
+        <v>1.037845257759185</v>
       </c>
       <c r="F6">
-        <v>1.061991437099861</v>
+        <v>1.046837630283831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042452565847062</v>
+        <v>1.052336446121823</v>
       </c>
       <c r="J6">
-        <v>1.049834192575352</v>
+        <v>1.044535773756303</v>
       </c>
       <c r="K6">
-        <v>1.053185783614536</v>
+        <v>1.05019577933463</v>
       </c>
       <c r="L6">
-        <v>1.054969265662977</v>
+        <v>1.047257827964207</v>
       </c>
       <c r="M6">
-        <v>1.064352549714412</v>
+        <v>1.056155068074718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045196355755686</v>
+        <v>1.025107300775858</v>
       </c>
       <c r="D7">
-        <v>1.050596538230818</v>
+        <v>1.039940710213024</v>
       </c>
       <c r="E7">
-        <v>1.052355190643909</v>
+        <v>1.03687274941699</v>
       </c>
       <c r="F7">
-        <v>1.061743642697277</v>
+        <v>1.045796999205448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042396548894332</v>
+        <v>1.052024479574639</v>
       </c>
       <c r="J7">
-        <v>1.049682324743708</v>
+        <v>1.043883992987622</v>
       </c>
       <c r="K7">
-        <v>1.053043461225413</v>
+        <v>1.049577000421715</v>
       </c>
       <c r="L7">
-        <v>1.054797807182284</v>
+        <v>1.046542764818099</v>
       </c>
       <c r="M7">
-        <v>1.064163528853916</v>
+        <v>1.055369586685739</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044098239213874</v>
+        <v>1.020065178714749</v>
       </c>
       <c r="D8">
-        <v>1.049754883794086</v>
+        <v>1.036228697212109</v>
       </c>
       <c r="E8">
-        <v>1.051392706671527</v>
+        <v>1.032747246126007</v>
       </c>
       <c r="F8">
-        <v>1.060710173647076</v>
+        <v>1.041382159955161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042160735583044</v>
+        <v>1.050681094471654</v>
       </c>
       <c r="J8">
-        <v>1.049047694019337</v>
+        <v>1.041106922434584</v>
       </c>
       <c r="K8">
-        <v>1.052448510140689</v>
+        <v>1.04693930948066</v>
       </c>
       <c r="L8">
-        <v>1.054081892730562</v>
+        <v>1.043501178976199</v>
       </c>
       <c r="M8">
-        <v>1.063374381295929</v>
+        <v>1.05202930765962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042169116813205</v>
+        <v>1.010827796434634</v>
       </c>
       <c r="D9">
-        <v>1.048276927857721</v>
+        <v>1.029455548765713</v>
       </c>
       <c r="E9">
-        <v>1.049704793788198</v>
+        <v>1.025235119815606</v>
       </c>
       <c r="F9">
-        <v>1.058897766640684</v>
+        <v>1.033341690521166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041738950584611</v>
+        <v>1.048159546092894</v>
       </c>
       <c r="J9">
-        <v>1.047930057482039</v>
+        <v>1.036003907087722</v>
       </c>
       <c r="K9">
-        <v>1.051399970041467</v>
+        <v>1.04208814660675</v>
       </c>
       <c r="L9">
-        <v>1.05282330346788</v>
+        <v>1.0379316251948</v>
       </c>
       <c r="M9">
-        <v>1.061987414684262</v>
+        <v>1.045916029952143</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040887108618459</v>
+        <v>1.004410670766663</v>
       </c>
       <c r="D10">
-        <v>1.047295196450146</v>
+        <v>1.024771605947293</v>
       </c>
       <c r="E10">
-        <v>1.048585086532085</v>
+        <v>1.020049947008387</v>
       </c>
       <c r="F10">
-        <v>1.057695466579441</v>
+        <v>1.027790679499229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041453601914086</v>
+        <v>1.046368978823664</v>
       </c>
       <c r="J10">
-        <v>1.047185495002342</v>
+        <v>1.032450379278023</v>
       </c>
       <c r="K10">
-        <v>1.050700918160561</v>
+        <v>1.038707555938581</v>
       </c>
       <c r="L10">
-        <v>1.05198631457484</v>
+        <v>1.034066390025931</v>
       </c>
       <c r="M10">
-        <v>1.061065299510577</v>
+        <v>1.041675661350993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040332973678517</v>
+        <v>1.001565385150607</v>
       </c>
       <c r="D11">
-        <v>1.046870967050995</v>
+        <v>1.02270049077686</v>
       </c>
       <c r="E11">
-        <v>1.048101586469411</v>
+        <v>1.017759377668496</v>
       </c>
       <c r="F11">
-        <v>1.057176299875375</v>
+        <v>1.02533819281233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041329065857246</v>
+        <v>1.045566289839296</v>
       </c>
       <c r="J11">
-        <v>1.046863233978085</v>
+        <v>1.030873186959056</v>
       </c>
       <c r="K11">
-        <v>1.050398232498861</v>
+        <v>1.03720664117958</v>
       </c>
       <c r="L11">
-        <v>1.051624399658693</v>
+        <v>1.032353973536746</v>
       </c>
       <c r="M11">
-        <v>1.060666634663245</v>
+        <v>1.039797581180995</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040127292808015</v>
+        <v>1.00049803790577</v>
       </c>
       <c r="D12">
-        <v>1.046713521522233</v>
+        <v>1.02192446933294</v>
       </c>
       <c r="E12">
-        <v>1.047922196452124</v>
+        <v>1.016901443484393</v>
       </c>
       <c r="F12">
-        <v>1.056983676296424</v>
+        <v>1.024419563410612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041282661409161</v>
+        <v>1.045263900028986</v>
       </c>
       <c r="J12">
-        <v>1.046743554239387</v>
+        <v>1.030281334819377</v>
       </c>
       <c r="K12">
-        <v>1.050285804244548</v>
+        <v>1.036643349605148</v>
       </c>
       <c r="L12">
-        <v>1.0514900460581</v>
+        <v>1.031711847278741</v>
       </c>
       <c r="M12">
-        <v>1.060518647230812</v>
+        <v>1.039093414667345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040171405257563</v>
+        <v>1.000727469690267</v>
       </c>
       <c r="D13">
-        <v>1.0467472881111</v>
+        <v>1.022091236960796</v>
       </c>
       <c r="E13">
-        <v>1.047960666981426</v>
+        <v>1.017085800241867</v>
       </c>
       <c r="F13">
-        <v>1.057024984806473</v>
+        <v>1.024616964889678</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041292621925092</v>
+        <v>1.04532895740803</v>
       </c>
       <c r="J13">
-        <v>1.046769224915462</v>
+        <v>1.030408565030452</v>
       </c>
       <c r="K13">
-        <v>1.050309920342894</v>
+        <v>1.036764442870984</v>
       </c>
       <c r="L13">
-        <v>1.051518861819554</v>
+        <v>1.031849863662056</v>
       </c>
       <c r="M13">
-        <v>1.060550386735954</v>
+        <v>1.039244762104247</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.040315968972892</v>
+        <v>1.001477374534353</v>
       </c>
       <c r="D14">
-        <v>1.046857949847288</v>
+        <v>1.022636483217657</v>
       </c>
       <c r="E14">
-        <v>1.048086753872908</v>
+        <v>1.017688607494685</v>
       </c>
       <c r="F14">
-        <v>1.057160373089741</v>
+        <v>1.025262416960953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041325233029409</v>
+        <v>1.045541381348864</v>
       </c>
       <c r="J14">
-        <v>1.046853340749403</v>
+        <v>1.030824388307232</v>
       </c>
       <c r="K14">
-        <v>1.050388939081495</v>
+        <v>1.037160198599379</v>
       </c>
       <c r="L14">
-        <v>1.05161329235373</v>
+        <v>1.032301020191993</v>
       </c>
       <c r="M14">
-        <v>1.060654400039322</v>
+        <v>1.039739510000435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040405059316462</v>
+        <v>1.001938012205858</v>
       </c>
       <c r="D15">
-        <v>1.046926149765428</v>
+        <v>1.022971529153907</v>
       </c>
       <c r="E15">
-        <v>1.048164467185743</v>
+        <v>1.018059064903114</v>
       </c>
       <c r="F15">
-        <v>1.057243819237105</v>
+        <v>1.025659075345902</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041345306455145</v>
+        <v>1.045671697675644</v>
       </c>
       <c r="J15">
-        <v>1.046905170295059</v>
+        <v>1.031079786924196</v>
       </c>
       <c r="K15">
-        <v>1.050437625531358</v>
+        <v>1.037403263669666</v>
       </c>
       <c r="L15">
-        <v>1.051671484467269</v>
+        <v>1.032578182479141</v>
       </c>
       <c r="M15">
-        <v>1.060718498634638</v>
+        <v>1.040043462772049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040923905597174</v>
+        <v>1.004598059602223</v>
       </c>
       <c r="D16">
-        <v>1.047323369585478</v>
+        <v>1.024908132001385</v>
       </c>
       <c r="E16">
-        <v>1.048617203256315</v>
+        <v>1.020200983670619</v>
       </c>
       <c r="F16">
-        <v>1.057729952425211</v>
+        <v>1.027952386088673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04146184641662</v>
+        <v>1.0464216636921</v>
       </c>
       <c r="J16">
-        <v>1.047206885462979</v>
+        <v>1.032554222042641</v>
       </c>
       <c r="K16">
-        <v>1.050721006708998</v>
+        <v>1.038806367320503</v>
       </c>
       <c r="L16">
-        <v>1.052010344487811</v>
+        <v>1.034179201181347</v>
       </c>
       <c r="M16">
-        <v>1.061091770732876</v>
+        <v>1.041799397325976</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041249628643266</v>
+        <v>1.006248474445647</v>
       </c>
       <c r="D17">
-        <v>1.047572768512335</v>
+        <v>1.026111232783921</v>
       </c>
       <c r="E17">
-        <v>1.048901552973092</v>
+        <v>1.02153220257198</v>
       </c>
       <c r="F17">
-        <v>1.058035277205382</v>
+        <v>1.029377613004163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041534687493847</v>
+        <v>1.046884686280859</v>
       </c>
       <c r="J17">
-        <v>1.047396181740938</v>
+        <v>1.033468632731178</v>
       </c>
       <c r="K17">
-        <v>1.050898767485666</v>
+        <v>1.039676419518227</v>
       </c>
       <c r="L17">
-        <v>1.052223039220847</v>
+        <v>1.035172941245683</v>
       </c>
       <c r="M17">
-        <v>1.061326080896414</v>
+        <v>1.042889433619331</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041439712114576</v>
+        <v>1.007204738100436</v>
       </c>
       <c r="D18">
-        <v>1.047718322188808</v>
+        <v>1.02680885702723</v>
       </c>
       <c r="E18">
-        <v>1.04906753856152</v>
+        <v>1.022304325033211</v>
       </c>
       <c r="F18">
-        <v>1.05821350650567</v>
+        <v>1.030204232133971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041577080029232</v>
+        <v>1.047152128307767</v>
       </c>
       <c r="J18">
-        <v>1.047506608417228</v>
+        <v>1.033998295335476</v>
       </c>
       <c r="K18">
-        <v>1.051002453056457</v>
+        <v>1.040180341844081</v>
       </c>
       <c r="L18">
-        <v>1.05234714925331</v>
+        <v>1.035748851480667</v>
       </c>
       <c r="M18">
-        <v>1.061462809476644</v>
+        <v>1.04352120174618</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041504541678387</v>
+        <v>1.007529728400048</v>
       </c>
       <c r="D19">
-        <v>1.047767966335509</v>
+        <v>1.027046037202267</v>
       </c>
       <c r="E19">
-        <v>1.049124157212142</v>
+        <v>1.022566869022172</v>
       </c>
       <c r="F19">
-        <v>1.05827430152194</v>
+        <v>1.030485301720935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041591518748027</v>
+        <v>1.047242876498363</v>
       </c>
       <c r="J19">
-        <v>1.047544263283518</v>
+        <v>1.034178276175885</v>
       </c>
       <c r="K19">
-        <v>1.051037807235285</v>
+        <v>1.04035156798793</v>
       </c>
       <c r="L19">
-        <v>1.052389475795401</v>
+        <v>1.035944597756935</v>
       </c>
       <c r="M19">
-        <v>1.061509440416201</v>
+        <v>1.043735942128193</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041214671831583</v>
+        <v>1.006072065380245</v>
       </c>
       <c r="D20">
-        <v>1.047546001716821</v>
+        <v>1.02598257990936</v>
       </c>
       <c r="E20">
-        <v>1.048871031560175</v>
+        <v>1.02138982796272</v>
       </c>
       <c r="F20">
-        <v>1.058002504402697</v>
+        <v>1.029225187219035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041526882097812</v>
+        <v>1.046835281376857</v>
       </c>
       <c r="J20">
-        <v>1.047375870649781</v>
+        <v>1.033370909207282</v>
       </c>
       <c r="K20">
-        <v>1.050879695352265</v>
+        <v>1.039583441327305</v>
       </c>
       <c r="L20">
-        <v>1.052200214030666</v>
+        <v>1.035066708953712</v>
       </c>
       <c r="M20">
-        <v>1.061300935474175</v>
+        <v>1.042772901869115</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04027339441976</v>
+        <v>1.001256839510893</v>
       </c>
       <c r="D21">
-        <v>1.04682535906039</v>
+        <v>1.022476109418583</v>
       </c>
       <c r="E21">
-        <v>1.048049618793948</v>
+        <v>1.017511294680578</v>
       </c>
       <c r="F21">
-        <v>1.05712049857838</v>
+        <v>1.025072561753648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041315633902107</v>
+        <v>1.0454789457461</v>
       </c>
       <c r="J21">
-        <v>1.046828570104467</v>
+        <v>1.030702106605857</v>
       </c>
       <c r="K21">
-        <v>1.050365669947207</v>
+        <v>1.037043819854206</v>
       </c>
       <c r="L21">
-        <v>1.051585482757133</v>
+        <v>1.032168335057939</v>
       </c>
       <c r="M21">
-        <v>1.060623768092989</v>
+        <v>1.039594002415364</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03968244192837</v>
+        <v>0.9981684198227748</v>
       </c>
       <c r="D22">
-        <v>1.046373028006811</v>
+        <v>1.020232447081131</v>
       </c>
       <c r="E22">
-        <v>1.047534341994152</v>
+        <v>1.015031382387864</v>
       </c>
       <c r="F22">
-        <v>1.05656720914017</v>
+        <v>1.022417110298274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041181968215301</v>
+        <v>1.04460159222365</v>
       </c>
       <c r="J22">
-        <v>1.046484590560359</v>
+        <v>1.028989213694103</v>
       </c>
       <c r="K22">
-        <v>1.050042497964133</v>
+        <v>1.03541347537406</v>
       </c>
       <c r="L22">
-        <v>1.051199427211426</v>
+        <v>1.030310832279821</v>
       </c>
       <c r="M22">
-        <v>1.060198553353738</v>
+        <v>1.037557187223477</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039995634330643</v>
+        <v>0.9998115863437419</v>
       </c>
       <c r="D23">
-        <v>1.046612744042384</v>
+        <v>1.021425644846976</v>
       </c>
       <c r="E23">
-        <v>1.047807387636667</v>
+        <v>1.016350052538159</v>
       </c>
       <c r="F23">
-        <v>1.056860397944913</v>
+        <v>1.023829149728211</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041252906822862</v>
+        <v>1.045069066474845</v>
       </c>
       <c r="J23">
-        <v>1.046666927830465</v>
+        <v>1.029900639885085</v>
       </c>
       <c r="K23">
-        <v>1.050213815540461</v>
+        <v>1.036281008922825</v>
       </c>
       <c r="L23">
-        <v>1.051404039342438</v>
+        <v>1.031298947106742</v>
       </c>
       <c r="M23">
-        <v>1.060423915280349</v>
+        <v>1.038640644213197</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041230467017617</v>
+        <v>1.006151796773346</v>
       </c>
       <c r="D24">
-        <v>1.047558096221802</v>
+        <v>1.026040725331512</v>
       </c>
       <c r="E24">
-        <v>1.048884822473929</v>
+        <v>1.021454174357278</v>
       </c>
       <c r="F24">
-        <v>1.058017312593817</v>
+        <v>1.029294076345775</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041530409312178</v>
+        <v>1.046857613448685</v>
       </c>
       <c r="J24">
-        <v>1.047385048316496</v>
+        <v>1.033415077671864</v>
       </c>
       <c r="K24">
-        <v>1.050888313226366</v>
+        <v>1.039625465169632</v>
       </c>
       <c r="L24">
-        <v>1.052210527601054</v>
+        <v>1.035114722237552</v>
       </c>
       <c r="M24">
-        <v>1.061312297424724</v>
+        <v>1.042825569991582</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042667131082196</v>
+        <v>1.013259835026824</v>
       </c>
       <c r="D25">
-        <v>1.048658393413763</v>
+        <v>1.031235319773367</v>
       </c>
       <c r="E25">
-        <v>1.050140186920195</v>
+        <v>1.027207322964656</v>
       </c>
       <c r="F25">
-        <v>1.059365273859582</v>
+        <v>1.035452792197736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041848728390913</v>
+        <v>1.048830291091991</v>
       </c>
       <c r="J25">
-        <v>1.048218906175673</v>
+        <v>1.037349047193174</v>
       </c>
       <c r="K25">
-        <v>1.051671053271619</v>
+        <v>1.043367353377712</v>
       </c>
       <c r="L25">
-        <v>1.053148320704819</v>
+        <v>1.0393974673293</v>
       </c>
       <c r="M25">
-        <v>1.062345540366934</v>
+        <v>1.047524594396271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,46 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.018743969687403</v>
+        <v>0.9931326092597832</v>
       </c>
       <c r="D2">
-        <v>1.03525775719279</v>
+        <v>1.015063300589172</v>
       </c>
       <c r="E2">
-        <v>1.031669210888911</v>
+        <v>1.000476559387011</v>
       </c>
       <c r="F2">
-        <v>1.040228423710751</v>
+        <v>1.013647294643338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050324979240514</v>
+        <v>1.040942870202055</v>
       </c>
       <c r="J2">
-        <v>1.040378148893619</v>
+        <v>1.015520681078952</v>
       </c>
       <c r="K2">
-        <v>1.046246812830828</v>
+        <v>1.026316693931732</v>
       </c>
       <c r="L2">
-        <v>1.042704293451012</v>
+        <v>1.011929258970574</v>
       </c>
       <c r="M2">
-        <v>1.051154379926157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.024919719569346</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028294571649383</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029678285898864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022625810350559</v>
+        <v>0.9971140046249337</v>
       </c>
       <c r="D3">
-        <v>1.038112528932683</v>
+        <v>1.017596475884152</v>
       </c>
       <c r="E3">
-        <v>1.034840092048629</v>
+        <v>1.003616856251255</v>
       </c>
       <c r="F3">
-        <v>1.043621855818595</v>
+        <v>1.016781672225103</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051366531998242</v>
+        <v>1.04155234230033</v>
       </c>
       <c r="J3">
-        <v>1.042518117073461</v>
+        <v>1.017683655174545</v>
       </c>
       <c r="K3">
-        <v>1.048279914915494</v>
+        <v>1.028009050336889</v>
       </c>
       <c r="L3">
-        <v>1.045045780336754</v>
+        <v>1.014203666963203</v>
       </c>
       <c r="M3">
-        <v>1.053725427946151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.027204238478048</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0301026441376</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030872261703064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025093535543663</v>
+        <v>0.9996411447197864</v>
       </c>
       <c r="D4">
-        <v>1.039930562037667</v>
+        <v>1.019207246662122</v>
       </c>
       <c r="E4">
-        <v>1.036861461552905</v>
+        <v>1.005615988742141</v>
       </c>
       <c r="F4">
-        <v>1.045784920459887</v>
+        <v>1.018778773963382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052020847688814</v>
+        <v>1.041928607996002</v>
       </c>
       <c r="J4">
-        <v>1.043876421195847</v>
+        <v>1.019054034508673</v>
       </c>
       <c r="K4">
-        <v>1.049569811326456</v>
+        <v>1.029079254868718</v>
       </c>
       <c r="L4">
-        <v>1.046534460646304</v>
+        <v>1.015647103002361</v>
       </c>
       <c r="M4">
-        <v>1.055360465186334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.028655718030838</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031251408824986</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031629912361852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026120729439498</v>
+        <v>1.000695394300781</v>
       </c>
       <c r="D5">
-        <v>1.04068805521642</v>
+        <v>1.019882025988933</v>
       </c>
       <c r="E5">
-        <v>1.037704171943197</v>
+        <v>1.006451735217332</v>
       </c>
       <c r="F5">
-        <v>1.04668666355727</v>
+        <v>1.019612538173455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052291303805652</v>
+        <v>1.04208445253554</v>
       </c>
       <c r="J5">
-        <v>1.044441287363956</v>
+        <v>1.019626472150197</v>
       </c>
       <c r="K5">
-        <v>1.050106084467629</v>
+        <v>1.029527534385768</v>
       </c>
       <c r="L5">
-        <v>1.047154138243191</v>
+        <v>1.016250249562702</v>
       </c>
       <c r="M5">
-        <v>1.056041162343094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.029261067934067</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031730508773727</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031954140075473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026292608423833</v>
+        <v>1.000875676567298</v>
       </c>
       <c r="D6">
-        <v>1.040814847578901</v>
+        <v>1.020000093515734</v>
       </c>
       <c r="E6">
-        <v>1.037845257759185</v>
+        <v>1.006595209725329</v>
       </c>
       <c r="F6">
-        <v>1.046837630283831</v>
+        <v>1.019753810702557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052336446121823</v>
+        <v>1.042112732528378</v>
       </c>
       <c r="J6">
-        <v>1.044535773756303</v>
+        <v>1.019726022225343</v>
       </c>
       <c r="K6">
-        <v>1.05019577933463</v>
+        <v>1.029607560345765</v>
       </c>
       <c r="L6">
-        <v>1.047257827964207</v>
+        <v>1.016354688410155</v>
       </c>
       <c r="M6">
-        <v>1.056155068074718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.029364026029611</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031811994205899</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032019566094161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025107300775858</v>
+        <v>0.999665845695817</v>
       </c>
       <c r="D7">
-        <v>1.039940710213024</v>
+        <v>1.019230120487481</v>
       </c>
       <c r="E7">
-        <v>1.03687274941699</v>
+        <v>1.005636858348307</v>
       </c>
       <c r="F7">
-        <v>1.045796999205448</v>
+        <v>1.01879451161264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052024479574639</v>
+        <v>1.041937056947719</v>
       </c>
       <c r="J7">
-        <v>1.043883992987622</v>
+        <v>1.019072009217328</v>
       </c>
       <c r="K7">
-        <v>1.049577000421715</v>
+        <v>1.02909893987949</v>
       </c>
       <c r="L7">
-        <v>1.046542764818099</v>
+        <v>1.01566474544213</v>
       </c>
       <c r="M7">
-        <v>1.055369586685739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.028668347158959</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031261404063507</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031664165149151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020065178714749</v>
+        <v>0.9945017863260744</v>
       </c>
       <c r="D8">
-        <v>1.036228697212109</v>
+        <v>1.015942549333902</v>
       </c>
       <c r="E8">
-        <v>1.032747246126007</v>
+        <v>1.001556938372768</v>
       </c>
       <c r="F8">
-        <v>1.041382159955161</v>
+        <v>1.014718877926592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050681094471654</v>
+        <v>1.041160547206652</v>
       </c>
       <c r="J8">
-        <v>1.041106922434584</v>
+        <v>1.016270691211005</v>
       </c>
       <c r="K8">
-        <v>1.04693930948066</v>
+        <v>1.026910813584551</v>
       </c>
       <c r="L8">
-        <v>1.043501178976199</v>
+        <v>1.012715861161345</v>
       </c>
       <c r="M8">
-        <v>1.05202930765962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0257030964654</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028914572396776</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030121564952085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010827796434634</v>
+        <v>0.9849917009203122</v>
       </c>
       <c r="D9">
-        <v>1.029455548765713</v>
+        <v>1.009902229742314</v>
       </c>
       <c r="E9">
-        <v>1.025235119815606</v>
+        <v>0.9940896757216218</v>
       </c>
       <c r="F9">
-        <v>1.033341690521166</v>
+        <v>1.007281438964017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048159546092894</v>
+        <v>1.039640742598604</v>
       </c>
       <c r="J9">
-        <v>1.036003907087722</v>
+        <v>1.011085804611616</v>
       </c>
       <c r="K9">
-        <v>1.04208814660675</v>
+        <v>1.022836667441138</v>
       </c>
       <c r="L9">
-        <v>1.0379316251948</v>
+        <v>1.007279377215411</v>
       </c>
       <c r="M9">
-        <v>1.045916029952143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.020257474314203</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024604643302249</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027237586613025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004410670766663</v>
+        <v>0.978482081101352</v>
       </c>
       <c r="D10">
-        <v>1.024771605947293</v>
+        <v>1.005799527403029</v>
       </c>
       <c r="E10">
-        <v>1.020049947008387</v>
+        <v>0.9890264574246028</v>
       </c>
       <c r="F10">
-        <v>1.027790679499229</v>
+        <v>1.00247720512717</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046368978823664</v>
+        <v>1.038566739039849</v>
       </c>
       <c r="J10">
-        <v>1.032450379278023</v>
+        <v>1.007576233031932</v>
       </c>
       <c r="K10">
-        <v>1.038707555938581</v>
+        <v>1.020064853197441</v>
       </c>
       <c r="L10">
-        <v>1.034066390025931</v>
+        <v>1.003596710068722</v>
       </c>
       <c r="M10">
-        <v>1.041675661350993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016801876452985</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021922194613995</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025294724336119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001565385150607</v>
+        <v>0.9765426307308821</v>
       </c>
       <c r="D11">
-        <v>1.02270049077686</v>
+        <v>1.004667745514936</v>
       </c>
       <c r="E11">
-        <v>1.017759377668496</v>
+        <v>0.9876322931608656</v>
       </c>
       <c r="F11">
-        <v>1.02533819281233</v>
+        <v>1.00298419665495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045566289839296</v>
+        <v>1.038377388074095</v>
       </c>
       <c r="J11">
-        <v>1.030873186959056</v>
+        <v>1.006924905342464</v>
       </c>
       <c r="K11">
-        <v>1.03720664117958</v>
+        <v>1.019502168599148</v>
       </c>
       <c r="L11">
-        <v>1.032353973536746</v>
+        <v>1.002791277028957</v>
       </c>
       <c r="M11">
-        <v>1.039797581180995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.017850053978398</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023195766882829</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024930167503757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00049803790577</v>
+        <v>0.9761429905365591</v>
       </c>
       <c r="D12">
-        <v>1.02192446933294</v>
+        <v>1.004478543804788</v>
       </c>
       <c r="E12">
-        <v>1.016901443484393</v>
+        <v>0.9874036214955048</v>
       </c>
       <c r="F12">
-        <v>1.024419563410612</v>
+        <v>1.004051832400594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045263900028986</v>
+        <v>1.038407816563229</v>
       </c>
       <c r="J12">
-        <v>1.030281334819377</v>
+        <v>1.006992501533837</v>
       </c>
       <c r="K12">
-        <v>1.036643349605148</v>
+        <v>1.019520442040674</v>
       </c>
       <c r="L12">
-        <v>1.031711847278741</v>
+        <v>1.002776193702979</v>
       </c>
       <c r="M12">
-        <v>1.039093414667345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.019101815230161</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024517188085697</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024943087749051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,75 +1016,105 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000727469690267</v>
+        <v>0.9769092566489626</v>
       </c>
       <c r="D13">
-        <v>1.022091236960796</v>
+        <v>1.005013585744906</v>
       </c>
       <c r="E13">
-        <v>1.017085800241867</v>
+        <v>0.9880615028706796</v>
       </c>
       <c r="F13">
-        <v>1.024616964889678</v>
+        <v>1.005647059968942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04532895740803</v>
+        <v>1.038619553825688</v>
       </c>
       <c r="J13">
-        <v>1.030408565030452</v>
+        <v>1.007627730231707</v>
       </c>
       <c r="K13">
-        <v>1.036764442870984</v>
+        <v>1.02000164620185</v>
       </c>
       <c r="L13">
-        <v>1.031849863662056</v>
+        <v>1.003376240093872</v>
       </c>
       <c r="M13">
-        <v>1.039244762104247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.02062319182324</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026000213723648</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025280797534167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001477374534353</v>
+        <v>0.9779632823041906</v>
       </c>
       <c r="D14">
-        <v>1.022636483217657</v>
+        <v>1.005710735548581</v>
       </c>
       <c r="E14">
-        <v>1.017688607494685</v>
+        <v>0.9889147255556823</v>
       </c>
       <c r="F14">
-        <v>1.025262416960953</v>
+        <v>1.006975043331422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045541381348864</v>
+        <v>1.03884742856308</v>
       </c>
       <c r="J14">
-        <v>1.030824388307232</v>
+        <v>1.008319455933356</v>
       </c>
       <c r="K14">
-        <v>1.037160198599379</v>
+        <v>1.020542582039688</v>
       </c>
       <c r="L14">
-        <v>1.032301020191993</v>
+        <v>1.004066013973099</v>
       </c>
       <c r="M14">
-        <v>1.039739510000435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.021783406428254</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027092414858556</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025664709900706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001938012205858</v>
+        <v>0.9784864200662768</v>
       </c>
       <c r="D15">
-        <v>1.022971529153907</v>
+        <v>1.006048883806963</v>
       </c>
       <c r="E15">
-        <v>1.018059064903114</v>
+        <v>0.9893272912161133</v>
       </c>
       <c r="F15">
-        <v>1.025659075345902</v>
+        <v>1.00746319083747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045671697675644</v>
+        <v>1.038947151778696</v>
       </c>
       <c r="J15">
-        <v>1.031079786924196</v>
+        <v>1.008625715044437</v>
       </c>
       <c r="K15">
-        <v>1.037403263669666</v>
+        <v>1.020786322801053</v>
       </c>
       <c r="L15">
-        <v>1.032578182479141</v>
+        <v>1.00438026085257</v>
       </c>
       <c r="M15">
-        <v>1.040043462772049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.022174568232204</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027439457390162</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025842993872893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004598059602223</v>
+        <v>0.9810737994256437</v>
       </c>
       <c r="D16">
-        <v>1.024908132001385</v>
+        <v>1.007668129260301</v>
       </c>
       <c r="E16">
-        <v>1.020200983670619</v>
+        <v>0.9913199620156434</v>
       </c>
       <c r="F16">
-        <v>1.027952386088673</v>
+        <v>1.009226510393925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0464216636921</v>
+        <v>1.039369323289308</v>
       </c>
       <c r="J16">
-        <v>1.032554222042641</v>
+        <v>1.009979718964577</v>
       </c>
       <c r="K16">
-        <v>1.038806367320503</v>
+        <v>1.021864024767144</v>
       </c>
       <c r="L16">
-        <v>1.034179201181347</v>
+        <v>1.005810581503652</v>
       </c>
       <c r="M16">
-        <v>1.041799397325976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.023394957546324</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028364975375637</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026608192617978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006248474445647</v>
+        <v>0.9825164752547154</v>
       </c>
       <c r="D17">
-        <v>1.026111232783921</v>
+        <v>1.008552710379275</v>
       </c>
       <c r="E17">
-        <v>1.02153220257198</v>
+        <v>0.9924116816604862</v>
       </c>
       <c r="F17">
-        <v>1.029377613004163</v>
+        <v>1.009889982368321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046884686280859</v>
+        <v>1.03957385367859</v>
       </c>
       <c r="J17">
-        <v>1.033468632731178</v>
+        <v>1.010663504672106</v>
       </c>
       <c r="K17">
-        <v>1.039676419518227</v>
+        <v>1.022412423208634</v>
       </c>
       <c r="L17">
-        <v>1.035172941245683</v>
+        <v>1.006554082765202</v>
       </c>
       <c r="M17">
-        <v>1.042889433619331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.023726798371415</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028496984197484</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026998560824936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007204738100436</v>
+        <v>0.9830671399686921</v>
       </c>
       <c r="D18">
-        <v>1.02680885702723</v>
+        <v>1.008852726251588</v>
       </c>
       <c r="E18">
-        <v>1.022304325033211</v>
+        <v>0.9927888288574876</v>
       </c>
       <c r="F18">
-        <v>1.030204232133971</v>
+        <v>1.009496924262009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047152128307767</v>
+        <v>1.03959669963584</v>
       </c>
       <c r="J18">
-        <v>1.033998295335476</v>
+        <v>1.01078547419938</v>
       </c>
       <c r="K18">
-        <v>1.040180341844081</v>
+        <v>1.022520379945609</v>
       </c>
       <c r="L18">
-        <v>1.035748851480667</v>
+        <v>1.006733208392004</v>
       </c>
       <c r="M18">
-        <v>1.04352120174618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.023153717532918</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027803550096824</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027063109660154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007529728400048</v>
+        <v>0.9827951231637212</v>
       </c>
       <c r="D19">
-        <v>1.027046037202267</v>
+        <v>1.008626731147122</v>
       </c>
       <c r="E19">
-        <v>1.022566869022172</v>
+        <v>0.9925070925903058</v>
       </c>
       <c r="F19">
-        <v>1.030485301720935</v>
+        <v>1.008044418210047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047242876498363</v>
+        <v>1.039460025186794</v>
       </c>
       <c r="J19">
-        <v>1.034178276175885</v>
+        <v>1.010385713665908</v>
       </c>
       <c r="K19">
-        <v>1.04035156798793</v>
+        <v>1.02223444538966</v>
       </c>
       <c r="L19">
-        <v>1.035944597756935</v>
+        <v>1.006391183611341</v>
       </c>
       <c r="M19">
-        <v>1.043735942128193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.021661917965446</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026293927801737</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026867416748411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006072065380245</v>
+        <v>0.9802013878371587</v>
       </c>
       <c r="D20">
-        <v>1.02598257990936</v>
+        <v>1.006899338139544</v>
       </c>
       <c r="E20">
-        <v>1.02138982796272</v>
+        <v>0.9903655050374359</v>
       </c>
       <c r="F20">
-        <v>1.029225187219035</v>
+        <v>1.003745470896006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046835281376857</v>
+        <v>1.038866505008671</v>
       </c>
       <c r="J20">
-        <v>1.033370909207282</v>
+        <v>1.008517439599296</v>
       </c>
       <c r="K20">
-        <v>1.039583441327305</v>
+        <v>1.020821946253699</v>
       </c>
       <c r="L20">
-        <v>1.035066708953712</v>
+        <v>1.004579907715704</v>
       </c>
       <c r="M20">
-        <v>1.042772901869115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.017722778892801</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022640243263451</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025872678897662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001256839510893</v>
+        <v>0.9751220336385473</v>
       </c>
       <c r="D21">
-        <v>1.022476109418583</v>
+        <v>1.003687674415691</v>
       </c>
       <c r="E21">
-        <v>1.017511294680578</v>
+        <v>0.9864073930643196</v>
       </c>
       <c r="F21">
-        <v>1.025072561753648</v>
+        <v>0.9996332094844884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0454789457461</v>
+        <v>1.037982340034499</v>
       </c>
       <c r="J21">
-        <v>1.030702106605857</v>
+        <v>1.005698016848771</v>
       </c>
       <c r="K21">
-        <v>1.037043819854206</v>
+        <v>1.018599517860866</v>
       </c>
       <c r="L21">
-        <v>1.032168335057939</v>
+        <v>1.001650939947249</v>
       </c>
       <c r="M21">
-        <v>1.039594002415364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.014621534158305</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020144058543156</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024304574579216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9981684198227748</v>
+        <v>0.971905739208425</v>
       </c>
       <c r="D22">
-        <v>1.020232447081131</v>
+        <v>1.00165733985542</v>
       </c>
       <c r="E22">
-        <v>1.015031382387864</v>
+        <v>0.9839141755202843</v>
       </c>
       <c r="F22">
-        <v>1.022417110298274</v>
+        <v>0.9971649372359161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04460159222365</v>
+        <v>1.037415790345962</v>
       </c>
       <c r="J22">
-        <v>1.028989213694103</v>
+        <v>1.003930532392598</v>
       </c>
       <c r="K22">
-        <v>1.03541347537406</v>
+        <v>1.017196035862147</v>
       </c>
       <c r="L22">
-        <v>1.030310832279821</v>
+        <v>0.9998111757865603</v>
       </c>
       <c r="M22">
-        <v>1.037557187223477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.012792767266331</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018696668151266</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023298526561307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9998115863437419</v>
+        <v>0.9736073940462139</v>
       </c>
       <c r="D23">
-        <v>1.021425644846976</v>
+        <v>1.002724752382192</v>
       </c>
       <c r="E23">
-        <v>1.016350052538159</v>
+        <v>0.985230970108275</v>
       </c>
       <c r="F23">
-        <v>1.023829149728211</v>
+        <v>0.9984731996808559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045069066474845</v>
+        <v>1.037712348927893</v>
       </c>
       <c r="J23">
-        <v>1.029900639885085</v>
+        <v>1.004861686164115</v>
       </c>
       <c r="K23">
-        <v>1.036281008922825</v>
+        <v>1.017930859040317</v>
       </c>
       <c r="L23">
-        <v>1.031298947106742</v>
+        <v>1.000781049096743</v>
       </c>
       <c r="M23">
-        <v>1.038640644213197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.013761449223088</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019463338675958</v>
+      </c>
+      <c r="Q23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R23">
+        <v>1.023808316195442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006151796773346</v>
+        <v>0.9801768262041451</v>
       </c>
       <c r="D24">
-        <v>1.026040725331512</v>
+        <v>1.006866697925858</v>
       </c>
       <c r="E24">
-        <v>1.021454174357278</v>
+        <v>0.9903342003659859</v>
       </c>
       <c r="F24">
-        <v>1.029294076345775</v>
+        <v>1.003539899529262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046857613448685</v>
+        <v>1.038842909073511</v>
       </c>
       <c r="J24">
-        <v>1.033415077671864</v>
+        <v>1.0084599010067</v>
       </c>
       <c r="K24">
-        <v>1.039625465169632</v>
+        <v>1.020774290268176</v>
       </c>
       <c r="L24">
-        <v>1.035114722237552</v>
+        <v>1.004533211499983</v>
       </c>
       <c r="M24">
-        <v>1.042825569991582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.017505134442796</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022426297868317</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025811205222281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013259835026824</v>
+        <v>0.9875165146131943</v>
       </c>
       <c r="D25">
-        <v>1.031235319773367</v>
+        <v>1.011513458561858</v>
       </c>
       <c r="E25">
-        <v>1.027207322964656</v>
+        <v>0.9960684950100637</v>
       </c>
       <c r="F25">
-        <v>1.035452792197736</v>
+        <v>1.009242557181076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048830291091991</v>
+        <v>1.040060908244459</v>
       </c>
       <c r="J25">
-        <v>1.037349047193174</v>
+        <v>1.012471427200609</v>
       </c>
       <c r="K25">
-        <v>1.043367353377712</v>
+        <v>1.02393563392904</v>
       </c>
       <c r="L25">
-        <v>1.0393974673293</v>
+        <v>1.008728150664715</v>
       </c>
       <c r="M25">
-        <v>1.047524594396271</v>
+        <v>1.021699068878224</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.02574559369601</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028043593114094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931326092597832</v>
+        <v>0.9931882784462214</v>
       </c>
       <c r="D2">
-        <v>1.015063300589172</v>
+        <v>1.015117786061015</v>
       </c>
       <c r="E2">
-        <v>1.000476559387011</v>
+        <v>1.000535110331751</v>
       </c>
       <c r="F2">
-        <v>1.013647294643338</v>
+        <v>1.013671410752284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040942870202055</v>
+        <v>1.04097750299126</v>
       </c>
       <c r="J2">
-        <v>1.015520681078952</v>
+        <v>1.015574653443946</v>
       </c>
       <c r="K2">
-        <v>1.026316693931732</v>
+        <v>1.026370448433944</v>
       </c>
       <c r="L2">
-        <v>1.011929258970574</v>
+        <v>1.01198699524811</v>
       </c>
       <c r="M2">
-        <v>1.024919719569346</v>
+        <v>1.02494351099045</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028294571649383</v>
+        <v>1.02831340128984</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029678285898864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029725174254508</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019140269093538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9971140046249337</v>
+        <v>0.9970464372838697</v>
       </c>
       <c r="D3">
-        <v>1.017596475884152</v>
+        <v>1.017479444495712</v>
       </c>
       <c r="E3">
-        <v>1.003616856251255</v>
+        <v>1.003566990127557</v>
       </c>
       <c r="F3">
-        <v>1.016781672225103</v>
+        <v>1.016752441005653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04155234230033</v>
+        <v>1.041514207762998</v>
       </c>
       <c r="J3">
-        <v>1.017683655174545</v>
+        <v>1.017617944520801</v>
       </c>
       <c r="K3">
-        <v>1.028009050336889</v>
+        <v>1.027893452860686</v>
       </c>
       <c r="L3">
-        <v>1.014203666963203</v>
+        <v>1.014154433196153</v>
       </c>
       <c r="M3">
-        <v>1.027204238478048</v>
+        <v>1.027175366086261</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0301026441376</v>
+        <v>1.030079793238993</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030872261703064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030799120484388</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019448376307917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9996411447197864</v>
+        <v>0.9994964358419801</v>
       </c>
       <c r="D4">
-        <v>1.019207246662122</v>
+        <v>1.018982124008259</v>
       </c>
       <c r="E4">
-        <v>1.005615988742141</v>
+        <v>1.005498180708219</v>
       </c>
       <c r="F4">
-        <v>1.018778773963382</v>
+        <v>1.018716223067804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041928607996002</v>
+        <v>1.041844570113124</v>
       </c>
       <c r="J4">
-        <v>1.019054034508673</v>
+        <v>1.018913031619415</v>
       </c>
       <c r="K4">
-        <v>1.029079254868718</v>
+        <v>1.028856724912686</v>
       </c>
       <c r="L4">
-        <v>1.015647103002361</v>
+        <v>1.015530697391977</v>
       </c>
       <c r="M4">
-        <v>1.028655718030838</v>
+        <v>1.028593888129424</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031251408824986</v>
+        <v>1.03120247396325</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031629912361852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031481239429571</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01964066975231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000695394300781</v>
+        <v>1.00051877018974</v>
       </c>
       <c r="D5">
-        <v>1.019882025988933</v>
+        <v>1.019612045424711</v>
       </c>
       <c r="E5">
-        <v>1.006451735217332</v>
+        <v>1.006305798523928</v>
       </c>
       <c r="F5">
-        <v>1.019612538173455</v>
+        <v>1.019536219066696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04208445253554</v>
+        <v>1.041981343336524</v>
       </c>
       <c r="J5">
-        <v>1.019626472150197</v>
+        <v>1.019454235523898</v>
       </c>
       <c r="K5">
-        <v>1.029527534385768</v>
+        <v>1.029260580711579</v>
       </c>
       <c r="L5">
-        <v>1.016250249562702</v>
+        <v>1.016106003181463</v>
       </c>
       <c r="M5">
-        <v>1.029261067934067</v>
+        <v>1.029185604836645</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031730508773727</v>
+        <v>1.03167078405081</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031954140075473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031774766948411</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019721100724953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000875676567298</v>
+        <v>1.000693631094957</v>
       </c>
       <c r="D6">
-        <v>1.020000093515734</v>
+        <v>1.019722515989866</v>
       </c>
       <c r="E6">
-        <v>1.006595209725329</v>
+        <v>1.006444488418198</v>
       </c>
       <c r="F6">
-        <v>1.019753810702557</v>
+        <v>1.019675153734685</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042112732528378</v>
+        <v>1.042006378589186</v>
       </c>
       <c r="J6">
-        <v>1.019726022225343</v>
+        <v>1.019548475528107</v>
       </c>
       <c r="K6">
-        <v>1.029607560345765</v>
+        <v>1.029333080680473</v>
       </c>
       <c r="L6">
-        <v>1.016354688410155</v>
+        <v>1.016205704715981</v>
       </c>
       <c r="M6">
-        <v>1.029364026029611</v>
+        <v>1.029286247211633</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031811994205899</v>
+        <v>1.031750436729793</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032019566094161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031835741929212</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019736037452601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.999665845695817</v>
+        <v>0.9995204372093917</v>
       </c>
       <c r="D7">
-        <v>1.019230120487481</v>
+        <v>1.019004108254583</v>
       </c>
       <c r="E7">
-        <v>1.005636858348307</v>
+        <v>1.00551841747193</v>
       </c>
       <c r="F7">
-        <v>1.01879451161264</v>
+        <v>1.018731658611636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041937056947719</v>
+        <v>1.041852599778113</v>
       </c>
       <c r="J7">
-        <v>1.019072009217328</v>
+        <v>1.018930323027358</v>
       </c>
       <c r="K7">
-        <v>1.02909893987949</v>
+        <v>1.028875529577644</v>
       </c>
       <c r="L7">
-        <v>1.01566474544213</v>
+        <v>1.015547713978153</v>
       </c>
       <c r="M7">
-        <v>1.028668347158959</v>
+        <v>1.028606218364674</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031261404063507</v>
+        <v>1.031212232645705</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031664165149151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031516873079235</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019645859296308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9945017863260744</v>
+        <v>0.9945148604237312</v>
       </c>
       <c r="D8">
-        <v>1.015942549333902</v>
+        <v>1.015938051624089</v>
       </c>
       <c r="E8">
-        <v>1.001556938372768</v>
+        <v>1.00157800989711</v>
       </c>
       <c r="F8">
-        <v>1.014718877926592</v>
+        <v>1.01472453909771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041160547206652</v>
+        <v>1.041170103622936</v>
       </c>
       <c r="J8">
-        <v>1.016270691211005</v>
+        <v>1.016283380282476</v>
       </c>
       <c r="K8">
-        <v>1.026910813584551</v>
+        <v>1.026906374427978</v>
       </c>
       <c r="L8">
-        <v>1.012715861161345</v>
+        <v>1.012736648380729</v>
       </c>
       <c r="M8">
-        <v>1.0257030964654</v>
+        <v>1.02570868371491</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028914572396776</v>
+        <v>1.028918994402739</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030121564952085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030129575704117</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019250993603937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9849917009203122</v>
+        <v>0.9853058843293961</v>
       </c>
       <c r="D9">
-        <v>1.009902229742314</v>
+        <v>1.010311925076776</v>
       </c>
       <c r="E9">
-        <v>0.9940896757216218</v>
+        <v>0.9943750403490189</v>
       </c>
       <c r="F9">
-        <v>1.007281438964017</v>
+        <v>1.007417913341053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039640742598604</v>
+        <v>1.039825761662765</v>
       </c>
       <c r="J9">
-        <v>1.011085804611616</v>
+        <v>1.011388417853124</v>
       </c>
       <c r="K9">
-        <v>1.022836667441138</v>
+        <v>1.023239884993025</v>
       </c>
       <c r="L9">
-        <v>1.007279377215411</v>
+        <v>1.007560042643876</v>
       </c>
       <c r="M9">
-        <v>1.020257474314203</v>
+        <v>1.020391775701037</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024604643302249</v>
+        <v>1.024710936250653</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027237586613025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027533575296608</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018493131364818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.978482081101352</v>
+        <v>0.9790066439327177</v>
       </c>
       <c r="D10">
-        <v>1.005799527403029</v>
+        <v>1.006494260830269</v>
       </c>
       <c r="E10">
-        <v>0.9890264574246028</v>
+        <v>0.9894954251974227</v>
       </c>
       <c r="F10">
-        <v>1.00247720512717</v>
+        <v>1.002705317679811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038566739039849</v>
+        <v>1.03887183544096</v>
       </c>
       <c r="J10">
-        <v>1.007576233031932</v>
+        <v>1.008078674042398</v>
       </c>
       <c r="K10">
-        <v>1.020064853197441</v>
+        <v>1.020747241101425</v>
       </c>
       <c r="L10">
-        <v>1.003596710068722</v>
+        <v>1.004056969006055</v>
       </c>
       <c r="M10">
-        <v>1.016801876452985</v>
+        <v>1.01702589797347</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021922194613995</v>
+        <v>1.022099485824875</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025294724336119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025789800357628</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01797080600396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9765426307308821</v>
+        <v>0.9771072448600158</v>
       </c>
       <c r="D11">
-        <v>1.004667745514936</v>
+        <v>1.005421644929849</v>
       </c>
       <c r="E11">
-        <v>0.9876322931608656</v>
+        <v>0.988133782117015</v>
       </c>
       <c r="F11">
-        <v>1.00298419665495</v>
+        <v>1.003227829628294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038377388074095</v>
+        <v>1.038704553278699</v>
       </c>
       <c r="J11">
-        <v>1.006924905342464</v>
+        <v>1.007464405295584</v>
       </c>
       <c r="K11">
-        <v>1.019502168599148</v>
+        <v>1.020242036160395</v>
       </c>
       <c r="L11">
-        <v>1.002791277028957</v>
+        <v>1.003283001937807</v>
       </c>
       <c r="M11">
-        <v>1.017850053978398</v>
+        <v>1.018089129456907</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023195766882829</v>
+        <v>1.023384872945172</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024930167503757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025469108608367</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017908508604242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9761429905365591</v>
+        <v>0.9767023320695654</v>
       </c>
       <c r="D12">
-        <v>1.004478543804788</v>
+        <v>1.005229631812601</v>
       </c>
       <c r="E12">
-        <v>0.9874036214955048</v>
+        <v>0.9878986009852039</v>
       </c>
       <c r="F12">
-        <v>1.004051832400594</v>
+        <v>1.004291816425531</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038407816563229</v>
+        <v>1.038731561411846</v>
       </c>
       <c r="J12">
-        <v>1.006992501533837</v>
+        <v>1.007526499770875</v>
       </c>
       <c r="K12">
-        <v>1.019520442040674</v>
+        <v>1.020257321514966</v>
       </c>
       <c r="L12">
-        <v>1.002776193702979</v>
+        <v>1.003261376026833</v>
       </c>
       <c r="M12">
-        <v>1.019101815230161</v>
+        <v>1.019337251345466</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024517188085697</v>
+        <v>1.024703350479172</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024943087749051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02547991587843</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017943951218829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9769092566489626</v>
+        <v>0.977427897771032</v>
       </c>
       <c r="D13">
-        <v>1.005013585744906</v>
+        <v>1.0057137981121</v>
       </c>
       <c r="E13">
-        <v>0.9880615028706796</v>
+        <v>0.9885193967194691</v>
       </c>
       <c r="F13">
-        <v>1.005647059968942</v>
+        <v>1.00586856764725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038619553825688</v>
+        <v>1.038919950107859</v>
       </c>
       <c r="J13">
-        <v>1.007627730231707</v>
+        <v>1.008123009868553</v>
       </c>
       <c r="K13">
-        <v>1.02000164620185</v>
+        <v>1.020688674400225</v>
       </c>
       <c r="L13">
-        <v>1.003376240093872</v>
+        <v>1.003825116730772</v>
       </c>
       <c r="M13">
-        <v>1.02062319182324</v>
+        <v>1.020840533043788</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026000213723648</v>
+        <v>1.026172024096093</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025280797534167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025782128206141</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018062556141176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9779632823041906</v>
+        <v>0.9784381747280042</v>
       </c>
       <c r="D14">
-        <v>1.005710735548581</v>
+        <v>1.006354431431117</v>
       </c>
       <c r="E14">
-        <v>0.9889147255556823</v>
+        <v>0.9893335035916774</v>
       </c>
       <c r="F14">
-        <v>1.006975043331422</v>
+        <v>1.007177341403174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03884742856308</v>
+        <v>1.039122835197417</v>
       </c>
       <c r="J14">
-        <v>1.008319455933356</v>
+        <v>1.008773279702436</v>
       </c>
       <c r="K14">
-        <v>1.020542582039688</v>
+        <v>1.021174312225956</v>
       </c>
       <c r="L14">
-        <v>1.004066013973099</v>
+        <v>1.004476654448553</v>
       </c>
       <c r="M14">
-        <v>1.021783406428254</v>
+        <v>1.021981954127698</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027092414858556</v>
+        <v>1.027249347284184</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025664709900706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026127073324289</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018181995091311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9784864200662768</v>
+        <v>0.97894245276922</v>
       </c>
       <c r="D15">
-        <v>1.006048883806963</v>
+        <v>1.006667639020822</v>
       </c>
       <c r="E15">
-        <v>0.9893272912161133</v>
+        <v>0.9897294431911489</v>
       </c>
       <c r="F15">
-        <v>1.00746319083747</v>
+        <v>1.007657351076858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038947151778696</v>
+        <v>1.039211814253243</v>
       </c>
       <c r="J15">
-        <v>1.008625715044437</v>
+        <v>1.009061698001403</v>
       </c>
       <c r="K15">
-        <v>1.020786322801053</v>
+        <v>1.021393664398663</v>
       </c>
       <c r="L15">
-        <v>1.00438026085257</v>
+        <v>1.004774660466093</v>
       </c>
       <c r="M15">
-        <v>1.022174568232204</v>
+        <v>1.02236515809856</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027439457390162</v>
+        <v>1.027590095935467</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025842993872893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026288682514045</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018232194254749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810737994256437</v>
+        <v>0.9814495145660362</v>
       </c>
       <c r="D16">
-        <v>1.007668129260301</v>
+        <v>1.00817714933646</v>
       </c>
       <c r="E16">
-        <v>0.9913199620156434</v>
+        <v>0.9916526025228511</v>
       </c>
       <c r="F16">
-        <v>1.009226510393925</v>
+        <v>1.009386529330152</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039369323289308</v>
+        <v>1.039588334308626</v>
       </c>
       <c r="J16">
-        <v>1.009979718964577</v>
+        <v>1.010339755574083</v>
       </c>
       <c r="K16">
-        <v>1.021864024767144</v>
+        <v>1.022364067182226</v>
       </c>
       <c r="L16">
-        <v>1.005810581503652</v>
+        <v>1.006137098995662</v>
       </c>
       <c r="M16">
-        <v>1.023394957546324</v>
+        <v>1.023552164227326</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028364975375637</v>
+        <v>1.028489232106633</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026608192617978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026978310052116</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018433192355851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9825164752547154</v>
+        <v>0.9828531563899454</v>
       </c>
       <c r="D17">
-        <v>1.008552710379275</v>
+        <v>1.009006694837652</v>
       </c>
       <c r="E17">
-        <v>0.9924116816604862</v>
+        <v>0.9927111321650923</v>
       </c>
       <c r="F17">
-        <v>1.009889982368321</v>
+        <v>1.010033606161809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.03957385367859</v>
+        <v>1.03977069242739</v>
       </c>
       <c r="J17">
-        <v>1.010663504672106</v>
+        <v>1.010986592092618</v>
       </c>
       <c r="K17">
-        <v>1.022412423208634</v>
+        <v>1.022858625732998</v>
       </c>
       <c r="L17">
-        <v>1.006554082765202</v>
+        <v>1.006848180124603</v>
       </c>
       <c r="M17">
-        <v>1.023726798371415</v>
+        <v>1.023867967690282</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028496984197484</v>
+        <v>1.028608576218567</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026998560824936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027330856378917</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018525357011935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9830671399686921</v>
+        <v>0.9833984054008303</v>
       </c>
       <c r="D18">
-        <v>1.008852726251588</v>
+        <v>1.009296169056572</v>
       </c>
       <c r="E18">
-        <v>0.9927888288574876</v>
+        <v>0.993084884026559</v>
       </c>
       <c r="F18">
-        <v>1.009496924262009</v>
+        <v>1.009638714654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.03959669963584</v>
+        <v>1.039790697191038</v>
       </c>
       <c r="J18">
-        <v>1.01078547419938</v>
+        <v>1.011103612547724</v>
       </c>
       <c r="K18">
-        <v>1.022520379945609</v>
+        <v>1.022956344906856</v>
       </c>
       <c r="L18">
-        <v>1.006733208392004</v>
+        <v>1.007024058598218</v>
       </c>
       <c r="M18">
-        <v>1.023153717532918</v>
+        <v>1.023293119905179</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027803550096824</v>
+        <v>1.027913768799334</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027063109660154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027387029463201</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018523269529253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9827951231637212</v>
+        <v>0.9831515434480427</v>
       </c>
       <c r="D19">
-        <v>1.008626731147122</v>
+        <v>1.009100553738983</v>
       </c>
       <c r="E19">
-        <v>0.9925070925903058</v>
+        <v>0.9928267414971803</v>
       </c>
       <c r="F19">
-        <v>1.008044418210047</v>
+        <v>1.008197781776906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039460025186794</v>
+        <v>1.039668775645337</v>
       </c>
       <c r="J19">
-        <v>1.010385713665908</v>
+        <v>1.01072808255278</v>
       </c>
       <c r="K19">
-        <v>1.02223444538966</v>
+        <v>1.022700316344097</v>
       </c>
       <c r="L19">
-        <v>1.006391183611341</v>
+        <v>1.006705239052001</v>
       </c>
       <c r="M19">
-        <v>1.021661917965446</v>
+        <v>1.021812702911108</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026293927801737</v>
+        <v>1.026413186155879</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026867416748411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027213110091513</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018439123309925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802013878371587</v>
+        <v>0.9806695128520994</v>
       </c>
       <c r="D20">
-        <v>1.006899338139544</v>
+        <v>1.007518417388863</v>
       </c>
       <c r="E20">
-        <v>0.9903655050374359</v>
+        <v>0.9907852050315978</v>
       </c>
       <c r="F20">
-        <v>1.003745470896006</v>
+        <v>1.003948974031381</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038866505008671</v>
+        <v>1.039139564985088</v>
       </c>
       <c r="J20">
-        <v>1.008517439599296</v>
+        <v>1.008966480834145</v>
       </c>
       <c r="K20">
-        <v>1.020821946253699</v>
+        <v>1.021430340347578</v>
       </c>
       <c r="L20">
-        <v>1.004579907715704</v>
+        <v>1.004992044131881</v>
       </c>
       <c r="M20">
-        <v>1.017722778892801</v>
+        <v>1.017922739092625</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022640243263451</v>
+        <v>1.022798494229793</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025872678897662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026319543675574</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018118616930286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9751220336385473</v>
+        <v>0.9757615060404099</v>
       </c>
       <c r="D21">
-        <v>1.003687674415691</v>
+        <v>1.004535792424031</v>
       </c>
       <c r="E21">
-        <v>0.9864073930643196</v>
+        <v>0.9869766553313002</v>
       </c>
       <c r="F21">
-        <v>0.9996332094844884</v>
+        <v>0.9999118751186041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037982340034499</v>
+        <v>1.038352244956626</v>
       </c>
       <c r="J21">
-        <v>1.005698016848771</v>
+        <v>1.006308785667539</v>
       </c>
       <c r="K21">
-        <v>1.018599517860866</v>
+        <v>1.019431739361717</v>
       </c>
       <c r="L21">
-        <v>1.001650939947249</v>
+        <v>1.002209032118122</v>
       </c>
       <c r="M21">
-        <v>1.014621534158305</v>
+        <v>1.01489491724543</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020144058543156</v>
+        <v>1.020360429236592</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024304574579216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024910039411767</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01768600774231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.971905739208425</v>
+        <v>0.9726543751348286</v>
       </c>
       <c r="D22">
-        <v>1.00165733985542</v>
+        <v>1.002650089379115</v>
       </c>
       <c r="E22">
-        <v>0.9839141755202843</v>
+        <v>0.9845783604841766</v>
       </c>
       <c r="F22">
-        <v>0.9971649372359161</v>
+        <v>0.9974915055156324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037415790345962</v>
+        <v>1.037846687473426</v>
       </c>
       <c r="J22">
-        <v>1.003930532392598</v>
+        <v>1.004643549010324</v>
       </c>
       <c r="K22">
-        <v>1.017196035862147</v>
+        <v>1.018169229653943</v>
       </c>
       <c r="L22">
-        <v>0.9998111757865603</v>
+        <v>1.000461641083088</v>
       </c>
       <c r="M22">
-        <v>1.012792767266331</v>
+        <v>1.013112820502597</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018696668151266</v>
+        <v>1.018949976758342</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023298526561307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024002371201769</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017411268906323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9736073940462139</v>
+        <v>0.9742981915398264</v>
       </c>
       <c r="D23">
-        <v>1.002724752382192</v>
+        <v>1.003640855961843</v>
       </c>
       <c r="E23">
-        <v>0.985230970108275</v>
+        <v>0.9858449211610637</v>
       </c>
       <c r="F23">
-        <v>0.9984731996808559</v>
+        <v>0.9987743751135577</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037712348927893</v>
+        <v>1.038111007462093</v>
       </c>
       <c r="J23">
-        <v>1.004861686164115</v>
+        <v>1.005520608641652</v>
       </c>
       <c r="K23">
-        <v>1.017930859040317</v>
+        <v>1.018829382169851</v>
       </c>
       <c r="L23">
-        <v>1.000781049096743</v>
+        <v>1.001382656265252</v>
       </c>
       <c r="M23">
-        <v>1.013761449223088</v>
+        <v>1.014056775570824</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019463338675958</v>
+        <v>1.019697076730503</v>
       </c>
       <c r="Q23">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023808316195442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02445841449247</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017553991010439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9801768262041451</v>
+        <v>0.9806480372271564</v>
       </c>
       <c r="D24">
-        <v>1.006866697925858</v>
+        <v>1.007489260282102</v>
       </c>
       <c r="E24">
-        <v>0.9903342003659859</v>
+        <v>0.9907568322112842</v>
       </c>
       <c r="F24">
-        <v>1.003539899529262</v>
+        <v>1.003744906448407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038842909073511</v>
+        <v>1.039117779782165</v>
       </c>
       <c r="J24">
-        <v>1.0084599010067</v>
+        <v>1.008911928294021</v>
       </c>
       <c r="K24">
-        <v>1.020774290268176</v>
+        <v>1.021386120326044</v>
       </c>
       <c r="L24">
-        <v>1.004533211499983</v>
+        <v>1.004948236184515</v>
       </c>
       <c r="M24">
-        <v>1.017505134442796</v>
+        <v>1.017706574959297</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022426297868317</v>
+        <v>1.022585728645325</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025811205222281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026257821549038</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01810313281009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875165146131943</v>
+        <v>0.9877495201110531</v>
       </c>
       <c r="D25">
-        <v>1.011513458561858</v>
+        <v>1.011812531150669</v>
       </c>
       <c r="E25">
-        <v>0.9960684950100637</v>
+        <v>0.9962826876128462</v>
       </c>
       <c r="F25">
-        <v>1.009242557181076</v>
+        <v>1.00934368597785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040060908244459</v>
+        <v>1.040199022157108</v>
       </c>
       <c r="J25">
-        <v>1.012471427200609</v>
+        <v>1.012696314083861</v>
       </c>
       <c r="K25">
-        <v>1.02393563392904</v>
+        <v>1.024230199126005</v>
       </c>
       <c r="L25">
-        <v>1.008728150664715</v>
+        <v>1.008938985466705</v>
       </c>
       <c r="M25">
-        <v>1.021699068878224</v>
+        <v>1.021798664405784</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.02574559369601</v>
+        <v>1.025824418531772</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028043593114094</v>
+        <v>1.028265562613952</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018702346404305</v>
       </c>
     </row>
   </sheetData>
